--- a/examples/programs/all_programs.xlsx
+++ b/examples/programs/all_programs.xlsx
@@ -1364,8 +1364,11 @@
           <t>USD</t>
         </is>
       </c>
+      <c r="Q2" t="n">
+        <v>575</v>
+      </c>
       <c r="W2" t="n">
-        <v>0.25</v>
+        <v>0.15</v>
       </c>
       <c r="AH2" t="n">
         <v>0.0165</v>
@@ -1386,8 +1389,11 @@
           <t>CAD</t>
         </is>
       </c>
+      <c r="Q3" t="n">
+        <v>575</v>
+      </c>
       <c r="W3" t="n">
-        <v>0.25</v>
+        <v>0.15</v>
       </c>
       <c r="AH3" t="n">
         <v>0.0165</v>
@@ -1408,8 +1414,11 @@
           <t>EUR</t>
         </is>
       </c>
+      <c r="Q4" t="n">
+        <v>575</v>
+      </c>
       <c r="W4" t="n">
-        <v>0.25</v>
+        <v>0.15</v>
       </c>
       <c r="AH4" t="n">
         <v>0.0165</v>
@@ -1430,8 +1439,11 @@
           <t>AUD</t>
         </is>
       </c>
+      <c r="Q5" t="n">
+        <v>575</v>
+      </c>
       <c r="W5" t="n">
-        <v>0.25</v>
+        <v>0.15</v>
       </c>
       <c r="AH5" t="n">
         <v>0.0165</v>
@@ -1452,8 +1464,11 @@
           <t>GBP</t>
         </is>
       </c>
+      <c r="Q6" t="n">
+        <v>575</v>
+      </c>
       <c r="W6" t="n">
-        <v>0.25</v>
+        <v>0.15</v>
       </c>
       <c r="AH6" t="n">
         <v>0.0165</v>
@@ -1474,11 +1489,11 @@
           <t>USD</t>
         </is>
       </c>
+      <c r="Q7" t="n">
+        <v>65</v>
+      </c>
       <c r="S7" t="n">
         <v>0</v>
-      </c>
-      <c r="U7" t="n">
-        <v>65</v>
       </c>
       <c r="AH7" t="n">
         <v>0.05</v>
@@ -1499,11 +1514,11 @@
           <t>CAD</t>
         </is>
       </c>
+      <c r="Q8" t="n">
+        <v>65</v>
+      </c>
       <c r="S8" t="n">
         <v>0</v>
-      </c>
-      <c r="U8" t="n">
-        <v>65</v>
       </c>
       <c r="AH8" t="n">
         <v>0.05</v>
@@ -1524,11 +1539,11 @@
           <t>EUR</t>
         </is>
       </c>
+      <c r="Q9" t="n">
+        <v>65</v>
+      </c>
       <c r="S9" t="n">
         <v>0</v>
-      </c>
-      <c r="U9" t="n">
-        <v>65</v>
       </c>
       <c r="AH9" t="n">
         <v>0.05</v>
@@ -1549,11 +1564,11 @@
           <t>AUD</t>
         </is>
       </c>
+      <c r="Q10" t="n">
+        <v>65</v>
+      </c>
       <c r="S10" t="n">
         <v>0</v>
-      </c>
-      <c r="U10" t="n">
-        <v>65</v>
       </c>
       <c r="AH10" t="n">
         <v>0.05</v>
@@ -1574,11 +1589,11 @@
           <t>USD</t>
         </is>
       </c>
+      <c r="Q11" t="n">
+        <v>50</v>
+      </c>
       <c r="S11" t="n">
         <v>65</v>
-      </c>
-      <c r="U11" t="n">
-        <v>50</v>
       </c>
       <c r="AH11" t="n">
         <v>0.05</v>
@@ -1599,11 +1614,11 @@
           <t>CAD</t>
         </is>
       </c>
+      <c r="Q12" t="n">
+        <v>50</v>
+      </c>
       <c r="S12" t="n">
         <v>65</v>
-      </c>
-      <c r="U12" t="n">
-        <v>50</v>
       </c>
       <c r="AH12" t="n">
         <v>0.05</v>
@@ -1624,11 +1639,11 @@
           <t>EUR</t>
         </is>
       </c>
+      <c r="Q13" t="n">
+        <v>50</v>
+      </c>
       <c r="S13" t="n">
         <v>65</v>
-      </c>
-      <c r="U13" t="n">
-        <v>50</v>
       </c>
       <c r="AH13" t="n">
         <v>0.05</v>
@@ -1649,11 +1664,11 @@
           <t>AUD</t>
         </is>
       </c>
+      <c r="Q14" t="n">
+        <v>50</v>
+      </c>
       <c r="S14" t="n">
         <v>65</v>
-      </c>
-      <c r="U14" t="n">
-        <v>50</v>
       </c>
       <c r="AH14" t="n">
         <v>0.05</v>
@@ -1674,11 +1689,11 @@
           <t>USD</t>
         </is>
       </c>
+      <c r="Q15" t="n">
+        <v>100</v>
+      </c>
       <c r="S15" t="n">
         <v>115</v>
-      </c>
-      <c r="U15" t="n">
-        <v>100</v>
       </c>
       <c r="AH15" t="n">
         <v>0.05</v>
@@ -1699,11 +1714,11 @@
           <t>CAD</t>
         </is>
       </c>
+      <c r="Q16" t="n">
+        <v>100</v>
+      </c>
       <c r="S16" t="n">
         <v>115</v>
-      </c>
-      <c r="U16" t="n">
-        <v>100</v>
       </c>
       <c r="AH16" t="n">
         <v>0.05</v>
@@ -1724,11 +1739,11 @@
           <t>EUR</t>
         </is>
       </c>
+      <c r="Q17" t="n">
+        <v>100</v>
+      </c>
       <c r="S17" t="n">
         <v>115</v>
-      </c>
-      <c r="U17" t="n">
-        <v>100</v>
       </c>
       <c r="AH17" t="n">
         <v>0.05</v>
@@ -1749,11 +1764,11 @@
           <t>AUD</t>
         </is>
       </c>
+      <c r="Q18" t="n">
+        <v>100</v>
+      </c>
       <c r="S18" t="n">
         <v>115</v>
-      </c>
-      <c r="U18" t="n">
-        <v>100</v>
       </c>
       <c r="AH18" t="n">
         <v>0.05</v>
@@ -1774,11 +1789,11 @@
           <t>USD</t>
         </is>
       </c>
+      <c r="Q19" t="n">
+        <v>100</v>
+      </c>
       <c r="S19" t="n">
         <v>215</v>
-      </c>
-      <c r="U19" t="n">
-        <v>100</v>
       </c>
       <c r="AH19" t="n">
         <v>0.05</v>
@@ -1799,11 +1814,11 @@
           <t>CAD</t>
         </is>
       </c>
+      <c r="Q20" t="n">
+        <v>100</v>
+      </c>
       <c r="S20" t="n">
         <v>215</v>
-      </c>
-      <c r="U20" t="n">
-        <v>100</v>
       </c>
       <c r="AH20" t="n">
         <v>0.05</v>
@@ -1824,11 +1839,11 @@
           <t>EUR</t>
         </is>
       </c>
+      <c r="Q21" t="n">
+        <v>100</v>
+      </c>
       <c r="S21" t="n">
         <v>215</v>
-      </c>
-      <c r="U21" t="n">
-        <v>100</v>
       </c>
       <c r="AH21" t="n">
         <v>0.05</v>
@@ -1849,11 +1864,11 @@
           <t>AUD</t>
         </is>
       </c>
+      <c r="Q22" t="n">
+        <v>100</v>
+      </c>
       <c r="S22" t="n">
         <v>215</v>
-      </c>
-      <c r="U22" t="n">
-        <v>100</v>
       </c>
       <c r="AH22" t="n">
         <v>0.05</v>
@@ -1874,11 +1889,11 @@
           <t>USD</t>
         </is>
       </c>
+      <c r="Q23" t="n">
+        <v>100</v>
+      </c>
       <c r="S23" t="n">
         <v>315</v>
-      </c>
-      <c r="U23" t="n">
-        <v>100</v>
       </c>
       <c r="AH23" t="n">
         <v>0.05</v>
@@ -1899,11 +1914,11 @@
           <t>CAD</t>
         </is>
       </c>
+      <c r="Q24" t="n">
+        <v>100</v>
+      </c>
       <c r="S24" t="n">
         <v>315</v>
-      </c>
-      <c r="U24" t="n">
-        <v>100</v>
       </c>
       <c r="AH24" t="n">
         <v>0.05</v>
@@ -1924,11 +1939,11 @@
           <t>EUR</t>
         </is>
       </c>
+      <c r="Q25" t="n">
+        <v>100</v>
+      </c>
       <c r="S25" t="n">
         <v>315</v>
-      </c>
-      <c r="U25" t="n">
-        <v>100</v>
       </c>
       <c r="AH25" t="n">
         <v>0.05</v>
@@ -1949,11 +1964,11 @@
           <t>AUD</t>
         </is>
       </c>
+      <c r="Q26" t="n">
+        <v>100</v>
+      </c>
       <c r="S26" t="n">
         <v>315</v>
-      </c>
-      <c r="U26" t="n">
-        <v>100</v>
       </c>
       <c r="AH26" t="n">
         <v>0.05</v>
@@ -1974,11 +1989,11 @@
           <t>USD</t>
         </is>
       </c>
+      <c r="Q27" t="n">
+        <v>150</v>
+      </c>
       <c r="S27" t="n">
         <v>415</v>
-      </c>
-      <c r="U27" t="n">
-        <v>150</v>
       </c>
       <c r="AH27" t="n">
         <v>0.05</v>
@@ -1999,11 +2014,11 @@
           <t>CAD</t>
         </is>
       </c>
+      <c r="Q28" t="n">
+        <v>150</v>
+      </c>
       <c r="S28" t="n">
         <v>415</v>
-      </c>
-      <c r="U28" t="n">
-        <v>150</v>
       </c>
       <c r="AH28" t="n">
         <v>0.05</v>
@@ -2024,11 +2039,11 @@
           <t>EUR</t>
         </is>
       </c>
+      <c r="Q29" t="n">
+        <v>150</v>
+      </c>
       <c r="S29" t="n">
         <v>415</v>
-      </c>
-      <c r="U29" t="n">
-        <v>150</v>
       </c>
       <c r="AH29" t="n">
         <v>0.05</v>
@@ -2049,11 +2064,11 @@
           <t>AUD</t>
         </is>
       </c>
+      <c r="Q30" t="n">
+        <v>150</v>
+      </c>
       <c r="S30" t="n">
         <v>415</v>
-      </c>
-      <c r="U30" t="n">
-        <v>150</v>
       </c>
       <c r="AH30" t="n">
         <v>0.05</v>
@@ -2074,11 +2089,11 @@
           <t>GBP</t>
         </is>
       </c>
+      <c r="Q31" t="n">
+        <v>43.333333</v>
+      </c>
       <c r="S31" t="n">
         <v>23.333333</v>
-      </c>
-      <c r="U31" t="n">
-        <v>43.333333</v>
       </c>
       <c r="AH31" t="n">
         <v>0.05</v>
@@ -2099,11 +2114,11 @@
           <t>GBP</t>
         </is>
       </c>
+      <c r="Q32" t="n">
+        <v>33.333333</v>
+      </c>
       <c r="S32" t="n">
         <v>43.333333</v>
-      </c>
-      <c r="U32" t="n">
-        <v>33.333333</v>
       </c>
       <c r="AH32" t="n">
         <v>0.05</v>
@@ -2124,11 +2139,11 @@
           <t>GBP</t>
         </is>
       </c>
+      <c r="Q33" t="n">
+        <v>66.66666600000001</v>
+      </c>
       <c r="S33" t="n">
         <v>76.66666600000001</v>
-      </c>
-      <c r="U33" t="n">
-        <v>66.66666600000001</v>
       </c>
       <c r="AH33" t="n">
         <v>0.05</v>
@@ -2149,11 +2164,11 @@
           <t>GBP</t>
         </is>
       </c>
+      <c r="Q34" t="n">
+        <v>66.66666600000001</v>
+      </c>
       <c r="S34" t="n">
         <v>143.333333</v>
-      </c>
-      <c r="U34" t="n">
-        <v>66.66666600000001</v>
       </c>
       <c r="AH34" t="n">
         <v>0.05</v>
@@ -2174,11 +2189,11 @@
           <t>GBP</t>
         </is>
       </c>
+      <c r="Q35" t="n">
+        <v>66.66666600000001</v>
+      </c>
       <c r="S35" t="n">
         <v>210</v>
-      </c>
-      <c r="U35" t="n">
-        <v>66.66666600000001</v>
       </c>
       <c r="AH35" t="n">
         <v>0.05</v>
@@ -2199,11 +2214,11 @@
           <t>GBP</t>
         </is>
       </c>
+      <c r="Q36" t="n">
+        <v>100</v>
+      </c>
       <c r="S36" t="n">
         <v>276.666666</v>
-      </c>
-      <c r="U36" t="n">
-        <v>100</v>
       </c>
       <c r="AH36" t="n">
         <v>0.05</v>
@@ -2224,11 +2239,11 @@
           <t>United States</t>
         </is>
       </c>
+      <c r="Q37" t="n">
+        <v>8.75</v>
+      </c>
       <c r="S37" t="n">
         <v>3</v>
-      </c>
-      <c r="U37" t="n">
-        <v>8.75</v>
       </c>
       <c r="AH37" t="n">
         <v>0.1</v>
@@ -2249,11 +2264,11 @@
           <t>United States</t>
         </is>
       </c>
+      <c r="Q38" t="n">
+        <v>10</v>
+      </c>
       <c r="S38" t="n">
         <v>11.75</v>
-      </c>
-      <c r="U38" t="n">
-        <v>10</v>
       </c>
       <c r="AH38" t="n">
         <v>0.1</v>
@@ -2274,11 +2289,11 @@
           <t>United States</t>
         </is>
       </c>
+      <c r="Q39" t="n">
+        <v>23.25</v>
+      </c>
       <c r="S39" t="n">
         <v>21.75</v>
-      </c>
-      <c r="U39" t="n">
-        <v>23.25</v>
       </c>
       <c r="AH39" t="n">
         <v>0.0979</v>
@@ -2299,11 +2314,11 @@
           <t>Canada</t>
         </is>
       </c>
+      <c r="Q40" t="n">
+        <v>8.75</v>
+      </c>
       <c r="S40" t="n">
         <v>3</v>
-      </c>
-      <c r="U40" t="n">
-        <v>8.75</v>
       </c>
       <c r="AH40" t="n">
         <v>0.1</v>
@@ -2324,11 +2339,11 @@
           <t>Canada</t>
         </is>
       </c>
+      <c r="Q41" t="n">
+        <v>10</v>
+      </c>
       <c r="S41" t="n">
         <v>11.75</v>
-      </c>
-      <c r="U41" t="n">
-        <v>10</v>
       </c>
       <c r="AH41" t="n">
         <v>0.1</v>
@@ -2349,11 +2364,11 @@
           <t>Canada</t>
         </is>
       </c>
+      <c r="Q42" t="n">
+        <v>23.25</v>
+      </c>
       <c r="S42" t="n">
         <v>21.75</v>
-      </c>
-      <c r="U42" t="n">
-        <v>23.25</v>
       </c>
       <c r="AH42" t="n">
         <v>0.0979</v>
@@ -2369,7 +2384,7 @@
       <c r="E43" t="n">
         <v>11</v>
       </c>
-      <c r="U43" t="n">
+      <c r="Q43" t="n">
         <v>25</v>
       </c>
       <c r="W43" t="n">
@@ -2399,7 +2414,7 @@
           <t>cyber</t>
         </is>
       </c>
-      <c r="U44" t="n">
+      <c r="Q44" t="n">
         <v>10</v>
       </c>
       <c r="W44" t="n">
@@ -2419,11 +2434,11 @@
       <c r="E45" t="n">
         <v>12</v>
       </c>
+      <c r="Q45" t="n">
+        <v>1</v>
+      </c>
       <c r="S45" t="n">
         <v>0.5</v>
-      </c>
-      <c r="U45" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="46">

--- a/examples/programs/all_programs.xlsx
+++ b/examples/programs/all_programs.xlsx
@@ -1365,7 +1365,7 @@
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>575</v>
+        <v>575000000</v>
       </c>
       <c r="W2" t="n">
         <v>0.15</v>
@@ -1390,7 +1390,7 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>575</v>
+        <v>575000000</v>
       </c>
       <c r="W3" t="n">
         <v>0.15</v>
@@ -1415,7 +1415,7 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>575</v>
+        <v>575000000</v>
       </c>
       <c r="W4" t="n">
         <v>0.15</v>
@@ -1440,7 +1440,7 @@
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>575</v>
+        <v>575000000</v>
       </c>
       <c r="W5" t="n">
         <v>0.15</v>
@@ -1465,7 +1465,7 @@
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>575</v>
+        <v>575000000</v>
       </c>
       <c r="W6" t="n">
         <v>0.15</v>
@@ -1490,7 +1490,7 @@
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>65</v>
+        <v>65000000</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -1515,7 +1515,7 @@
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>65</v>
+        <v>65000000</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -1540,7 +1540,7 @@
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>65</v>
+        <v>65000000</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -1565,7 +1565,7 @@
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>65</v>
+        <v>65000000</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -1590,10 +1590,10 @@
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>50</v>
+        <v>50000000</v>
       </c>
       <c r="S11" t="n">
-        <v>65</v>
+        <v>65000000</v>
       </c>
       <c r="AH11" t="n">
         <v>0.05</v>
@@ -1615,10 +1615,10 @@
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>50</v>
+        <v>50000000</v>
       </c>
       <c r="S12" t="n">
-        <v>65</v>
+        <v>65000000</v>
       </c>
       <c r="AH12" t="n">
         <v>0.05</v>
@@ -1640,10 +1640,10 @@
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>50</v>
+        <v>50000000</v>
       </c>
       <c r="S13" t="n">
-        <v>65</v>
+        <v>65000000</v>
       </c>
       <c r="AH13" t="n">
         <v>0.05</v>
@@ -1665,10 +1665,10 @@
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>50</v>
+        <v>50000000</v>
       </c>
       <c r="S14" t="n">
-        <v>65</v>
+        <v>65000000</v>
       </c>
       <c r="AH14" t="n">
         <v>0.05</v>
@@ -1690,10 +1690,10 @@
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>100</v>
+        <v>100000000</v>
       </c>
       <c r="S15" t="n">
-        <v>115</v>
+        <v>115000000</v>
       </c>
       <c r="AH15" t="n">
         <v>0.05</v>
@@ -1715,10 +1715,10 @@
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>100</v>
+        <v>100000000</v>
       </c>
       <c r="S16" t="n">
-        <v>115</v>
+        <v>115000000</v>
       </c>
       <c r="AH16" t="n">
         <v>0.05</v>
@@ -1740,10 +1740,10 @@
         </is>
       </c>
       <c r="Q17" t="n">
-        <v>100</v>
+        <v>100000000</v>
       </c>
       <c r="S17" t="n">
-        <v>115</v>
+        <v>115000000</v>
       </c>
       <c r="AH17" t="n">
         <v>0.05</v>
@@ -1765,10 +1765,10 @@
         </is>
       </c>
       <c r="Q18" t="n">
-        <v>100</v>
+        <v>100000000</v>
       </c>
       <c r="S18" t="n">
-        <v>115</v>
+        <v>115000000</v>
       </c>
       <c r="AH18" t="n">
         <v>0.05</v>
@@ -1790,10 +1790,10 @@
         </is>
       </c>
       <c r="Q19" t="n">
-        <v>100</v>
+        <v>100000000</v>
       </c>
       <c r="S19" t="n">
-        <v>215</v>
+        <v>215000000</v>
       </c>
       <c r="AH19" t="n">
         <v>0.05</v>
@@ -1815,10 +1815,10 @@
         </is>
       </c>
       <c r="Q20" t="n">
-        <v>100</v>
+        <v>100000000</v>
       </c>
       <c r="S20" t="n">
-        <v>215</v>
+        <v>215000000</v>
       </c>
       <c r="AH20" t="n">
         <v>0.05</v>
@@ -1840,10 +1840,10 @@
         </is>
       </c>
       <c r="Q21" t="n">
-        <v>100</v>
+        <v>100000000</v>
       </c>
       <c r="S21" t="n">
-        <v>215</v>
+        <v>215000000</v>
       </c>
       <c r="AH21" t="n">
         <v>0.05</v>
@@ -1865,10 +1865,10 @@
         </is>
       </c>
       <c r="Q22" t="n">
-        <v>100</v>
+        <v>100000000</v>
       </c>
       <c r="S22" t="n">
-        <v>215</v>
+        <v>215000000</v>
       </c>
       <c r="AH22" t="n">
         <v>0.05</v>
@@ -1890,10 +1890,10 @@
         </is>
       </c>
       <c r="Q23" t="n">
-        <v>100</v>
+        <v>100000000</v>
       </c>
       <c r="S23" t="n">
-        <v>315</v>
+        <v>315000000</v>
       </c>
       <c r="AH23" t="n">
         <v>0.05</v>
@@ -1915,10 +1915,10 @@
         </is>
       </c>
       <c r="Q24" t="n">
-        <v>100</v>
+        <v>100000000</v>
       </c>
       <c r="S24" t="n">
-        <v>315</v>
+        <v>315000000</v>
       </c>
       <c r="AH24" t="n">
         <v>0.05</v>
@@ -1940,10 +1940,10 @@
         </is>
       </c>
       <c r="Q25" t="n">
-        <v>100</v>
+        <v>100000000</v>
       </c>
       <c r="S25" t="n">
-        <v>315</v>
+        <v>315000000</v>
       </c>
       <c r="AH25" t="n">
         <v>0.05</v>
@@ -1965,10 +1965,10 @@
         </is>
       </c>
       <c r="Q26" t="n">
-        <v>100</v>
+        <v>100000000</v>
       </c>
       <c r="S26" t="n">
-        <v>315</v>
+        <v>315000000</v>
       </c>
       <c r="AH26" t="n">
         <v>0.05</v>
@@ -1990,10 +1990,10 @@
         </is>
       </c>
       <c r="Q27" t="n">
-        <v>150</v>
+        <v>150000000</v>
       </c>
       <c r="S27" t="n">
-        <v>415</v>
+        <v>415000000</v>
       </c>
       <c r="AH27" t="n">
         <v>0.05</v>
@@ -2015,10 +2015,10 @@
         </is>
       </c>
       <c r="Q28" t="n">
-        <v>150</v>
+        <v>150000000</v>
       </c>
       <c r="S28" t="n">
-        <v>415</v>
+        <v>415000000</v>
       </c>
       <c r="AH28" t="n">
         <v>0.05</v>
@@ -2040,10 +2040,10 @@
         </is>
       </c>
       <c r="Q29" t="n">
-        <v>150</v>
+        <v>150000000</v>
       </c>
       <c r="S29" t="n">
-        <v>415</v>
+        <v>415000000</v>
       </c>
       <c r="AH29" t="n">
         <v>0.05</v>
@@ -2065,10 +2065,10 @@
         </is>
       </c>
       <c r="Q30" t="n">
-        <v>150</v>
+        <v>150000000</v>
       </c>
       <c r="S30" t="n">
-        <v>415</v>
+        <v>415000000</v>
       </c>
       <c r="AH30" t="n">
         <v>0.05</v>
@@ -2090,10 +2090,10 @@
         </is>
       </c>
       <c r="Q31" t="n">
-        <v>43.333333</v>
+        <v>43333333</v>
       </c>
       <c r="S31" t="n">
-        <v>23.333333</v>
+        <v>23333333</v>
       </c>
       <c r="AH31" t="n">
         <v>0.05</v>
@@ -2115,10 +2115,10 @@
         </is>
       </c>
       <c r="Q32" t="n">
-        <v>33.333333</v>
+        <v>33333333</v>
       </c>
       <c r="S32" t="n">
-        <v>43.333333</v>
+        <v>43333333</v>
       </c>
       <c r="AH32" t="n">
         <v>0.05</v>
@@ -2140,10 +2140,10 @@
         </is>
       </c>
       <c r="Q33" t="n">
-        <v>66.66666600000001</v>
+        <v>66666666</v>
       </c>
       <c r="S33" t="n">
-        <v>76.66666600000001</v>
+        <v>76666666</v>
       </c>
       <c r="AH33" t="n">
         <v>0.05</v>
@@ -2165,10 +2165,10 @@
         </is>
       </c>
       <c r="Q34" t="n">
-        <v>66.66666600000001</v>
+        <v>66666666</v>
       </c>
       <c r="S34" t="n">
-        <v>143.333333</v>
+        <v>143333333</v>
       </c>
       <c r="AH34" t="n">
         <v>0.05</v>
@@ -2190,10 +2190,10 @@
         </is>
       </c>
       <c r="Q35" t="n">
-        <v>66.66666600000001</v>
+        <v>66666666</v>
       </c>
       <c r="S35" t="n">
-        <v>210</v>
+        <v>210000000</v>
       </c>
       <c r="AH35" t="n">
         <v>0.05</v>
@@ -2215,10 +2215,10 @@
         </is>
       </c>
       <c r="Q36" t="n">
-        <v>100</v>
+        <v>100000000</v>
       </c>
       <c r="S36" t="n">
-        <v>276.666666</v>
+        <v>276666666</v>
       </c>
       <c r="AH36" t="n">
         <v>0.05</v>
@@ -2240,10 +2240,10 @@
         </is>
       </c>
       <c r="Q37" t="n">
-        <v>8.75</v>
+        <v>8750000</v>
       </c>
       <c r="S37" t="n">
-        <v>3</v>
+        <v>3000000</v>
       </c>
       <c r="AH37" t="n">
         <v>0.1</v>
@@ -2265,10 +2265,10 @@
         </is>
       </c>
       <c r="Q38" t="n">
-        <v>10</v>
+        <v>10000000</v>
       </c>
       <c r="S38" t="n">
-        <v>11.75</v>
+        <v>11750000</v>
       </c>
       <c r="AH38" t="n">
         <v>0.1</v>
@@ -2290,10 +2290,10 @@
         </is>
       </c>
       <c r="Q39" t="n">
-        <v>23.25</v>
+        <v>23250000</v>
       </c>
       <c r="S39" t="n">
-        <v>21.75</v>
+        <v>21750000</v>
       </c>
       <c r="AH39" t="n">
         <v>0.0979</v>
@@ -2315,10 +2315,10 @@
         </is>
       </c>
       <c r="Q40" t="n">
-        <v>8.75</v>
+        <v>8750000</v>
       </c>
       <c r="S40" t="n">
-        <v>3</v>
+        <v>3000000</v>
       </c>
       <c r="AH40" t="n">
         <v>0.1</v>
@@ -2340,10 +2340,10 @@
         </is>
       </c>
       <c r="Q41" t="n">
-        <v>10</v>
+        <v>10000000</v>
       </c>
       <c r="S41" t="n">
-        <v>11.75</v>
+        <v>11750000</v>
       </c>
       <c r="AH41" t="n">
         <v>0.1</v>
@@ -2365,10 +2365,10 @@
         </is>
       </c>
       <c r="Q42" t="n">
-        <v>23.25</v>
+        <v>23250000</v>
       </c>
       <c r="S42" t="n">
-        <v>21.75</v>
+        <v>21750000</v>
       </c>
       <c r="AH42" t="n">
         <v>0.0979</v>
@@ -2385,7 +2385,7 @@
         <v>11</v>
       </c>
       <c r="Q43" t="n">
-        <v>25</v>
+        <v>25000000</v>
       </c>
       <c r="W43" t="n">
         <v>1</v>
@@ -2415,7 +2415,7 @@
         </is>
       </c>
       <c r="Q44" t="n">
-        <v>10</v>
+        <v>10000000</v>
       </c>
       <c r="W44" t="n">
         <v>1</v>
@@ -2435,10 +2435,10 @@
         <v>12</v>
       </c>
       <c r="Q45" t="n">
-        <v>1</v>
+        <v>1000000</v>
       </c>
       <c r="S45" t="n">
-        <v>0.5</v>
+        <v>500000</v>
       </c>
     </row>
     <row r="46">

--- a/examples/programs/all_programs.xlsx
+++ b/examples/programs/all_programs.xlsx
@@ -1368,7 +1368,7 @@
         <v>575000000</v>
       </c>
       <c r="W2" t="n">
-        <v>0.15</v>
+        <v>0.25</v>
       </c>
       <c r="AH2" t="n">
         <v>0.0165</v>
@@ -1393,7 +1393,7 @@
         <v>575000000</v>
       </c>
       <c r="W3" t="n">
-        <v>0.15</v>
+        <v>0.25</v>
       </c>
       <c r="AH3" t="n">
         <v>0.0165</v>
@@ -1418,7 +1418,7 @@
         <v>575000000</v>
       </c>
       <c r="W4" t="n">
-        <v>0.15</v>
+        <v>0.25</v>
       </c>
       <c r="AH4" t="n">
         <v>0.0165</v>
@@ -1443,7 +1443,7 @@
         <v>575000000</v>
       </c>
       <c r="W5" t="n">
-        <v>0.15</v>
+        <v>0.25</v>
       </c>
       <c r="AH5" t="n">
         <v>0.0165</v>
@@ -1468,7 +1468,7 @@
         <v>575000000</v>
       </c>
       <c r="W6" t="n">
-        <v>0.15</v>
+        <v>0.25</v>
       </c>
       <c r="AH6" t="n">
         <v>0.0165</v>
@@ -1493,7 +1493,7 @@
         <v>65000000</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>35000000</v>
       </c>
       <c r="AH7" t="n">
         <v>0.05</v>
@@ -1518,7 +1518,7 @@
         <v>65000000</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>35000000</v>
       </c>
       <c r="AH8" t="n">
         <v>0.05</v>
@@ -1543,7 +1543,7 @@
         <v>65000000</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>35000000</v>
       </c>
       <c r="AH9" t="n">
         <v>0.05</v>
@@ -1568,7 +1568,7 @@
         <v>65000000</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>35000000</v>
       </c>
       <c r="AH10" t="n">
         <v>0.05</v>

--- a/examples/programs/all_programs.xlsx
+++ b/examples/programs/all_programs.xlsx
@@ -599,7 +599,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T14"/>
+  <dimension ref="A1:U14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -620,13 +620,14 @@
     <col width="25" customWidth="1" min="11" max="11"/>
     <col width="16" customWidth="1" min="12" max="12"/>
     <col width="23" customWidth="1" min="13" max="13"/>
-    <col width="30" customWidth="1" min="14" max="14"/>
-    <col width="31" customWidth="1" min="15" max="15"/>
-    <col width="34" customWidth="1" min="16" max="16"/>
-    <col width="23" customWidth="1" min="17" max="17"/>
-    <col width="22" customWidth="1" min="18" max="18"/>
-    <col width="28" customWidth="1" min="19" max="19"/>
-    <col width="16" customWidth="1" min="20" max="20"/>
+    <col width="26" customWidth="1" min="14" max="14"/>
+    <col width="30" customWidth="1" min="15" max="15"/>
+    <col width="31" customWidth="1" min="16" max="16"/>
+    <col width="34" customWidth="1" min="17" max="17"/>
+    <col width="23" customWidth="1" min="18" max="18"/>
+    <col width="22" customWidth="1" min="19" max="19"/>
+    <col width="28" customWidth="1" min="20" max="20"/>
+    <col width="16" customWidth="1" min="21" max="21"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -697,35 +698,40 @@
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
+          <t>INSPER_PREDECESSOR_TITLE</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
           <t>INSPER_CONTRACT_FORM_CD_SLAV</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>INSPER_CONTRACT_LODRA_CD_SLAV</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>INSPER_CONTRACT_COVERAGE_CD_SLAV</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="R1" s="1" t="inlineStr">
         <is>
           <t>INSPER_CLAIM_BASIS_CD</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>INSPER_LODRA_CD_SLAV</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>INSPER_LOD_TO_RA_DATE_SLAV</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>INSPER_COMMENT</t>
         </is>
@@ -754,7 +760,7 @@
       <c r="M2" t="n">
         <v>0</v>
       </c>
-      <c r="Q2" t="inlineStr">
+      <c r="R2" t="inlineStr">
         <is>
           <t>risk_attaching</t>
         </is>
@@ -783,7 +789,12 @@
       <c r="M3" t="n">
         <v>1</v>
       </c>
-      <c r="Q3" t="inlineStr">
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>QS_1</t>
+        </is>
+      </c>
+      <c r="R3" t="inlineStr">
         <is>
           <t>risk_attaching</t>
         </is>
@@ -812,7 +823,12 @@
       <c r="M4" t="n">
         <v>2</v>
       </c>
-      <c r="Q4" t="inlineStr">
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>QS_1</t>
+        </is>
+      </c>
+      <c r="R4" t="inlineStr">
         <is>
           <t>risk_attaching</t>
         </is>
@@ -841,7 +857,12 @@
       <c r="M5" t="n">
         <v>3</v>
       </c>
-      <c r="Q5" t="inlineStr">
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>QS_1</t>
+        </is>
+      </c>
+      <c r="R5" t="inlineStr">
         <is>
           <t>risk_attaching</t>
         </is>
@@ -870,7 +891,12 @@
       <c r="M6" t="n">
         <v>4</v>
       </c>
-      <c r="Q6" t="inlineStr">
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>QS_1</t>
+        </is>
+      </c>
+      <c r="R6" t="inlineStr">
         <is>
           <t>risk_attaching</t>
         </is>
@@ -899,7 +925,12 @@
       <c r="M7" t="n">
         <v>5</v>
       </c>
-      <c r="Q7" t="inlineStr">
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>QS_1</t>
+        </is>
+      </c>
+      <c r="R7" t="inlineStr">
         <is>
           <t>risk_attaching</t>
         </is>
@@ -928,7 +959,12 @@
       <c r="M8" t="n">
         <v>6</v>
       </c>
-      <c r="Q8" t="inlineStr">
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>QS_1</t>
+        </is>
+      </c>
+      <c r="R8" t="inlineStr">
         <is>
           <t>risk_attaching</t>
         </is>
@@ -957,7 +993,7 @@
       <c r="M9" t="n">
         <v>1</v>
       </c>
-      <c r="Q9" t="inlineStr">
+      <c r="R9" t="inlineStr">
         <is>
           <t>risk_attaching</t>
         </is>
@@ -986,7 +1022,7 @@
       <c r="M10" t="n">
         <v>2</v>
       </c>
-      <c r="Q10" t="inlineStr">
+      <c r="R10" t="inlineStr">
         <is>
           <t>risk_attaching</t>
         </is>
@@ -1015,7 +1051,7 @@
       <c r="M11" t="n">
         <v>3</v>
       </c>
-      <c r="Q11" t="inlineStr">
+      <c r="R11" t="inlineStr">
         <is>
           <t>risk_attaching</t>
         </is>
@@ -1044,7 +1080,7 @@
       <c r="M12" t="n">
         <v>0</v>
       </c>
-      <c r="Q12" t="inlineStr">
+      <c r="R12" t="inlineStr">
         <is>
           <t>risk_attaching</t>
         </is>

--- a/examples/programs/all_programs.xlsx
+++ b/examples/programs/all_programs.xlsx
@@ -757,9 +757,6 @@
           <t>QS_1</t>
         </is>
       </c>
-      <c r="M2" t="n">
-        <v>0</v>
-      </c>
       <c r="R2" t="inlineStr">
         <is>
           <t>risk_attaching</t>
@@ -786,9 +783,6 @@
           <t>XOL_1</t>
         </is>
       </c>
-      <c r="M3" t="n">
-        <v>1</v>
-      </c>
       <c r="N3" t="inlineStr">
         <is>
           <t>QS_1</t>
@@ -820,9 +814,6 @@
           <t>XOL_2</t>
         </is>
       </c>
-      <c r="M4" t="n">
-        <v>2</v>
-      </c>
       <c r="N4" t="inlineStr">
         <is>
           <t>QS_1</t>
@@ -854,9 +845,6 @@
           <t>XOL_3</t>
         </is>
       </c>
-      <c r="M5" t="n">
-        <v>3</v>
-      </c>
       <c r="N5" t="inlineStr">
         <is>
           <t>QS_1</t>
@@ -888,9 +876,6 @@
           <t>XOL_4</t>
         </is>
       </c>
-      <c r="M6" t="n">
-        <v>4</v>
-      </c>
       <c r="N6" t="inlineStr">
         <is>
           <t>QS_1</t>
@@ -922,9 +907,6 @@
           <t>XOL_5</t>
         </is>
       </c>
-      <c r="M7" t="n">
-        <v>5</v>
-      </c>
       <c r="N7" t="inlineStr">
         <is>
           <t>QS_1</t>
@@ -956,9 +938,6 @@
           <t>XOL_6</t>
         </is>
       </c>
-      <c r="M8" t="n">
-        <v>6</v>
-      </c>
       <c r="N8" t="inlineStr">
         <is>
           <t>QS_1</t>
@@ -990,9 +969,6 @@
           <t>XOL_1</t>
         </is>
       </c>
-      <c r="M9" t="n">
-        <v>1</v>
-      </c>
       <c r="R9" t="inlineStr">
         <is>
           <t>risk_attaching</t>
@@ -1019,9 +995,6 @@
           <t>XOL_2</t>
         </is>
       </c>
-      <c r="M10" t="n">
-        <v>2</v>
-      </c>
       <c r="R10" t="inlineStr">
         <is>
           <t>risk_attaching</t>
@@ -1048,9 +1021,6 @@
           <t>XOL_3</t>
         </is>
       </c>
-      <c r="M11" t="n">
-        <v>3</v>
-      </c>
       <c r="R11" t="inlineStr">
         <is>
           <t>risk_attaching</t>
@@ -1077,9 +1047,6 @@
           <t>QS_1</t>
         </is>
       </c>
-      <c r="M12" t="n">
-        <v>0</v>
-      </c>
       <c r="R12" t="inlineStr">
         <is>
           <t>risk_attaching</t>
@@ -1106,9 +1073,6 @@
           <t>XOL_0.5M_1M</t>
         </is>
       </c>
-      <c r="M13" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
@@ -1129,9 +1093,6 @@
         <is>
           <t>QS_30</t>
         </is>
-      </c>
-      <c r="M14" t="n">
-        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/examples/programs/all_programs.xlsx
+++ b/examples/programs/all_programs.xlsx
@@ -427,7 +427,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N5"/>
+  <dimension ref="A1:N7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,7 +436,7 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="15" customWidth="1" min="1" max="1"/>
-    <col width="28" customWidth="1" min="2" max="2"/>
+    <col width="31" customWidth="1" min="2" max="2"/>
     <col width="12" customWidth="1" min="3" max="3"/>
     <col width="14" customWidth="1" min="4" max="4"/>
     <col width="19" customWidth="1" min="5" max="5"/>
@@ -552,7 +552,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>AVIATION_OLD_REPUBLIC_2024</t>
+          <t>AVIATION_HULL_LIABILITY_SPLIT</t>
         </is>
       </c>
       <c r="E3" t="b">
@@ -575,7 +575,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>CASUALTY_AIG_2024</t>
+          <t>AVIATION_OLD_REPUBLIC_2024</t>
         </is>
       </c>
       <c r="E4" t="b">
@@ -583,12 +583,12 @@
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>casualty</t>
+          <t>aviation</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>Casualty</t>
+          <t>Aviation</t>
         </is>
       </c>
     </row>
@@ -598,18 +598,64 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>CASUALTY_AIG_2024</t>
+        </is>
+      </c>
+      <c r="E5" t="b">
+        <v>1</v>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>casualty</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>Casualty</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>NEW_LINE_2024</t>
+        </is>
+      </c>
+      <c r="E6" t="b">
+        <v>1</v>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>casualty</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>Casualty</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>SINGLE_QUOTA_SHARE_2024</t>
         </is>
       </c>
-      <c r="E5" t="b">
-        <v>1</v>
-      </c>
-      <c r="I5" t="inlineStr">
+      <c r="E7" t="b">
+        <v>1</v>
+      </c>
+      <c r="I7" t="inlineStr">
         <is>
           <t>test</t>
         </is>
       </c>
-      <c r="J5" t="inlineStr">
+      <c r="J7" t="inlineStr">
         <is>
           <t>Test</t>
         </is>
@@ -626,7 +672,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:U13"/>
+  <dimension ref="A1:U19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -982,7 +1028,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>excess_of_loss</t>
+          <t>quota_share</t>
         </is>
       </c>
       <c r="E9" t="b">
@@ -993,7 +1039,7 @@
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>XOL_1</t>
+          <t>QS_ALL</t>
         </is>
       </c>
       <c r="R9" t="inlineStr">
@@ -1019,7 +1065,12 @@
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>XOL_2</t>
+          <t>XOL_HULL</t>
+        </is>
+      </c>
+      <c r="N10" t="inlineStr">
+        <is>
+          <t>QS_ALL</t>
         </is>
       </c>
       <c r="R10" t="inlineStr">
@@ -1045,7 +1096,12 @@
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>XOL_3</t>
+          <t>XOL_LIABILITY</t>
+        </is>
+      </c>
+      <c r="N11" t="inlineStr">
+        <is>
+          <t>QS_ALL</t>
         </is>
       </c>
       <c r="R11" t="inlineStr">
@@ -1060,7 +1116,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>quota_share</t>
+          <t>excess_of_loss</t>
         </is>
       </c>
       <c r="E12" t="b">
@@ -1071,7 +1127,7 @@
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>QS_1</t>
+          <t>XOL_1</t>
         </is>
       </c>
       <c r="R12" t="inlineStr">
@@ -1086,16 +1142,172 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
+          <t>excess_of_loss</t>
+        </is>
+      </c>
+      <c r="E13" t="b">
+        <v>1</v>
+      </c>
+      <c r="H13" t="n">
+        <v>3</v>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>XOL_2</t>
+        </is>
+      </c>
+      <c r="R13" t="inlineStr">
+        <is>
+          <t>risk_attaching</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>13</v>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>excess_of_loss</t>
+        </is>
+      </c>
+      <c r="E14" t="b">
+        <v>1</v>
+      </c>
+      <c r="H14" t="n">
+        <v>3</v>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>XOL_3</t>
+        </is>
+      </c>
+      <c r="R14" t="inlineStr">
+        <is>
+          <t>risk_attaching</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>14</v>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
           <t>quota_share</t>
         </is>
       </c>
-      <c r="E13" t="b">
-        <v>1</v>
-      </c>
-      <c r="H13" t="n">
+      <c r="E15" t="b">
+        <v>1</v>
+      </c>
+      <c r="H15" t="n">
         <v>4</v>
       </c>
-      <c r="I13" t="inlineStr">
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>QS_1</t>
+        </is>
+      </c>
+      <c r="R15" t="inlineStr">
+        <is>
+          <t>risk_attaching</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>15</v>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>excess_of_loss</t>
+        </is>
+      </c>
+      <c r="E16" t="b">
+        <v>1</v>
+      </c>
+      <c r="H16" t="n">
+        <v>5</v>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>LAYER_1</t>
+        </is>
+      </c>
+      <c r="R16" t="inlineStr">
+        <is>
+          <t>risk_attaching</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>16</v>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>excess_of_loss</t>
+        </is>
+      </c>
+      <c r="E17" t="b">
+        <v>1</v>
+      </c>
+      <c r="H17" t="n">
+        <v>5</v>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>LAYER_2</t>
+        </is>
+      </c>
+      <c r="R17" t="inlineStr">
+        <is>
+          <t>risk_attaching</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>17</v>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>excess_of_loss</t>
+        </is>
+      </c>
+      <c r="E18" t="b">
+        <v>1</v>
+      </c>
+      <c r="H18" t="n">
+        <v>5</v>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>LAYER_3</t>
+        </is>
+      </c>
+      <c r="R18" t="inlineStr">
+        <is>
+          <t>risk_attaching</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>18</v>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>quota_share</t>
+        </is>
+      </c>
+      <c r="E19" t="b">
+        <v>1</v>
+      </c>
+      <c r="H19" t="n">
+        <v>6</v>
+      </c>
+      <c r="I19" t="inlineStr">
         <is>
           <t>QS_30</t>
         </is>
@@ -1112,7 +1324,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AL45"/>
+  <dimension ref="A1:AN98"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1131,7 +1343,7 @@
     <col width="18" customWidth="1" min="9" max="9"/>
     <col width="15" customWidth="1" min="10" max="10"/>
     <col width="14" customWidth="1" min="11" max="11"/>
-    <col width="27" customWidth="1" min="12" max="12"/>
+    <col width="47" customWidth="1" min="12" max="12"/>
     <col width="27" customWidth="1" min="13" max="13"/>
     <col width="27" customWidth="1" min="14" max="14"/>
     <col width="25" customWidth="1" min="15" max="15"/>
@@ -1158,6 +1370,8 @@
     <col width="17" customWidth="1" min="36" max="36"/>
     <col width="13" customWidth="1" min="37" max="37"/>
     <col width="22" customWidth="1" min="38" max="38"/>
+    <col width="15" customWidth="1" min="39" max="39"/>
+    <col width="20" customWidth="1" min="40" max="40"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1351,6 +1565,16 @@
           <t>NO_OF_REINSTATEMENTS</t>
         </is>
       </c>
+      <c r="AM1" s="1" t="inlineStr">
+        <is>
+          <t>INCLUDES_HULL</t>
+        </is>
+      </c>
+      <c r="AN1" s="1" t="inlineStr">
+        <is>
+          <t>INCLUDES_LIABILITY</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -1375,6 +1599,12 @@
       </c>
       <c r="AH2" t="n">
         <v>0.0165</v>
+      </c>
+      <c r="AM2" t="b">
+        <v>1</v>
+      </c>
+      <c r="AN2" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="3">
@@ -1401,6 +1631,12 @@
       <c r="AH3" t="n">
         <v>0.0165</v>
       </c>
+      <c r="AM3" t="b">
+        <v>1</v>
+      </c>
+      <c r="AN3" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -1426,6 +1662,12 @@
       <c r="AH4" t="n">
         <v>0.0165</v>
       </c>
+      <c r="AM4" t="b">
+        <v>1</v>
+      </c>
+      <c r="AN4" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -1451,6 +1693,12 @@
       <c r="AH5" t="n">
         <v>0.0165</v>
       </c>
+      <c r="AM5" t="b">
+        <v>1</v>
+      </c>
+      <c r="AN5" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -1475,6 +1723,12 @@
       </c>
       <c r="AH6" t="n">
         <v>0.0165</v>
+      </c>
+      <c r="AM6" t="b">
+        <v>1</v>
+      </c>
+      <c r="AN6" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="7">
@@ -1501,6 +1755,12 @@
       <c r="AH7" t="n">
         <v>0.05</v>
       </c>
+      <c r="AM7" t="b">
+        <v>1</v>
+      </c>
+      <c r="AN7" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -1526,6 +1786,12 @@
       <c r="AH8" t="n">
         <v>0.05</v>
       </c>
+      <c r="AM8" t="b">
+        <v>1</v>
+      </c>
+      <c r="AN8" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -1551,6 +1817,12 @@
       <c r="AH9" t="n">
         <v>0.05</v>
       </c>
+      <c r="AM9" t="b">
+        <v>1</v>
+      </c>
+      <c r="AN9" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -1576,6 +1848,12 @@
       <c r="AH10" t="n">
         <v>0.05</v>
       </c>
+      <c r="AM10" t="b">
+        <v>1</v>
+      </c>
+      <c r="AN10" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -1585,21 +1863,27 @@
         <v>1</v>
       </c>
       <c r="E11" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O11" t="inlineStr">
         <is>
-          <t>USD</t>
+          <t>GBP</t>
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>50000000</v>
+        <v>43333333</v>
       </c>
       <c r="S11" t="n">
-        <v>65000000</v>
+        <v>23333333</v>
       </c>
       <c r="AH11" t="n">
         <v>0.05</v>
+      </c>
+      <c r="AM11" t="b">
+        <v>1</v>
+      </c>
+      <c r="AN11" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="12">
@@ -1614,7 +1898,7 @@
       </c>
       <c r="O12" t="inlineStr">
         <is>
-          <t>CAD</t>
+          <t>USD</t>
         </is>
       </c>
       <c r="Q12" t="n">
@@ -1625,6 +1909,12 @@
       </c>
       <c r="AH12" t="n">
         <v>0.05</v>
+      </c>
+      <c r="AM12" t="b">
+        <v>1</v>
+      </c>
+      <c r="AN12" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="13">
@@ -1639,7 +1929,7 @@
       </c>
       <c r="O13" t="inlineStr">
         <is>
-          <t>EUR</t>
+          <t>CAD</t>
         </is>
       </c>
       <c r="Q13" t="n">
@@ -1650,6 +1940,12 @@
       </c>
       <c r="AH13" t="n">
         <v>0.05</v>
+      </c>
+      <c r="AM13" t="b">
+        <v>1</v>
+      </c>
+      <c r="AN13" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="14">
@@ -1664,7 +1960,7 @@
       </c>
       <c r="O14" t="inlineStr">
         <is>
-          <t>AUD</t>
+          <t>EUR</t>
         </is>
       </c>
       <c r="Q14" t="n">
@@ -1675,6 +1971,12 @@
       </c>
       <c r="AH14" t="n">
         <v>0.05</v>
+      </c>
+      <c r="AM14" t="b">
+        <v>1</v>
+      </c>
+      <c r="AN14" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="15">
@@ -1685,21 +1987,27 @@
         <v>1</v>
       </c>
       <c r="E15" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="O15" t="inlineStr">
         <is>
-          <t>USD</t>
+          <t>AUD</t>
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>100000000</v>
+        <v>50000000</v>
       </c>
       <c r="S15" t="n">
-        <v>115000000</v>
+        <v>65000000</v>
       </c>
       <c r="AH15" t="n">
         <v>0.05</v>
+      </c>
+      <c r="AM15" t="b">
+        <v>1</v>
+      </c>
+      <c r="AN15" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="16">
@@ -1710,21 +2018,27 @@
         <v>1</v>
       </c>
       <c r="E16" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="O16" t="inlineStr">
         <is>
-          <t>CAD</t>
+          <t>GBP</t>
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>100000000</v>
+        <v>33333333</v>
       </c>
       <c r="S16" t="n">
-        <v>115000000</v>
+        <v>43333333</v>
       </c>
       <c r="AH16" t="n">
         <v>0.05</v>
+      </c>
+      <c r="AM16" t="b">
+        <v>1</v>
+      </c>
+      <c r="AN16" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="17">
@@ -1739,7 +2053,7 @@
       </c>
       <c r="O17" t="inlineStr">
         <is>
-          <t>EUR</t>
+          <t>USD</t>
         </is>
       </c>
       <c r="Q17" t="n">
@@ -1750,6 +2064,12 @@
       </c>
       <c r="AH17" t="n">
         <v>0.05</v>
+      </c>
+      <c r="AM17" t="b">
+        <v>1</v>
+      </c>
+      <c r="AN17" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="18">
@@ -1764,7 +2084,7 @@
       </c>
       <c r="O18" t="inlineStr">
         <is>
-          <t>AUD</t>
+          <t>CAD</t>
         </is>
       </c>
       <c r="Q18" t="n">
@@ -1775,6 +2095,12 @@
       </c>
       <c r="AH18" t="n">
         <v>0.05</v>
+      </c>
+      <c r="AM18" t="b">
+        <v>1</v>
+      </c>
+      <c r="AN18" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="19">
@@ -1785,21 +2111,27 @@
         <v>1</v>
       </c>
       <c r="E19" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="O19" t="inlineStr">
         <is>
-          <t>USD</t>
+          <t>EUR</t>
         </is>
       </c>
       <c r="Q19" t="n">
         <v>100000000</v>
       </c>
       <c r="S19" t="n">
-        <v>215000000</v>
+        <v>115000000</v>
       </c>
       <c r="AH19" t="n">
         <v>0.05</v>
+      </c>
+      <c r="AM19" t="b">
+        <v>1</v>
+      </c>
+      <c r="AN19" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="20">
@@ -1810,21 +2142,27 @@
         <v>1</v>
       </c>
       <c r="E20" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="O20" t="inlineStr">
         <is>
-          <t>CAD</t>
+          <t>AUD</t>
         </is>
       </c>
       <c r="Q20" t="n">
         <v>100000000</v>
       </c>
       <c r="S20" t="n">
-        <v>215000000</v>
+        <v>115000000</v>
       </c>
       <c r="AH20" t="n">
         <v>0.05</v>
+      </c>
+      <c r="AM20" t="b">
+        <v>1</v>
+      </c>
+      <c r="AN20" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="21">
@@ -1835,21 +2173,27 @@
         <v>1</v>
       </c>
       <c r="E21" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="O21" t="inlineStr">
         <is>
-          <t>EUR</t>
+          <t>GBP</t>
         </is>
       </c>
       <c r="Q21" t="n">
-        <v>100000000</v>
+        <v>66666666</v>
       </c>
       <c r="S21" t="n">
-        <v>215000000</v>
+        <v>76666666</v>
       </c>
       <c r="AH21" t="n">
         <v>0.05</v>
+      </c>
+      <c r="AM21" t="b">
+        <v>1</v>
+      </c>
+      <c r="AN21" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="22">
@@ -1864,7 +2208,7 @@
       </c>
       <c r="O22" t="inlineStr">
         <is>
-          <t>AUD</t>
+          <t>USD</t>
         </is>
       </c>
       <c r="Q22" t="n">
@@ -1875,6 +2219,12 @@
       </c>
       <c r="AH22" t="n">
         <v>0.05</v>
+      </c>
+      <c r="AM22" t="b">
+        <v>1</v>
+      </c>
+      <c r="AN22" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="23">
@@ -1885,21 +2235,27 @@
         <v>1</v>
       </c>
       <c r="E23" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="O23" t="inlineStr">
         <is>
-          <t>USD</t>
+          <t>CAD</t>
         </is>
       </c>
       <c r="Q23" t="n">
         <v>100000000</v>
       </c>
       <c r="S23" t="n">
-        <v>315000000</v>
+        <v>215000000</v>
       </c>
       <c r="AH23" t="n">
         <v>0.05</v>
+      </c>
+      <c r="AM23" t="b">
+        <v>1</v>
+      </c>
+      <c r="AN23" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="24">
@@ -1910,21 +2266,27 @@
         <v>1</v>
       </c>
       <c r="E24" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="O24" t="inlineStr">
         <is>
-          <t>CAD</t>
+          <t>EUR</t>
         </is>
       </c>
       <c r="Q24" t="n">
         <v>100000000</v>
       </c>
       <c r="S24" t="n">
-        <v>315000000</v>
+        <v>215000000</v>
       </c>
       <c r="AH24" t="n">
         <v>0.05</v>
+      </c>
+      <c r="AM24" t="b">
+        <v>1</v>
+      </c>
+      <c r="AN24" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="25">
@@ -1935,21 +2297,27 @@
         <v>1</v>
       </c>
       <c r="E25" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="O25" t="inlineStr">
         <is>
-          <t>EUR</t>
+          <t>AUD</t>
         </is>
       </c>
       <c r="Q25" t="n">
         <v>100000000</v>
       </c>
       <c r="S25" t="n">
-        <v>315000000</v>
+        <v>215000000</v>
       </c>
       <c r="AH25" t="n">
         <v>0.05</v>
+      </c>
+      <c r="AM25" t="b">
+        <v>1</v>
+      </c>
+      <c r="AN25" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="26">
@@ -1960,21 +2328,27 @@
         <v>1</v>
       </c>
       <c r="E26" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="O26" t="inlineStr">
         <is>
-          <t>AUD</t>
+          <t>GBP</t>
         </is>
       </c>
       <c r="Q26" t="n">
-        <v>100000000</v>
+        <v>66666666</v>
       </c>
       <c r="S26" t="n">
-        <v>315000000</v>
+        <v>143333333</v>
       </c>
       <c r="AH26" t="n">
         <v>0.05</v>
+      </c>
+      <c r="AM26" t="b">
+        <v>1</v>
+      </c>
+      <c r="AN26" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="27">
@@ -1985,7 +2359,7 @@
         <v>1</v>
       </c>
       <c r="E27" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="O27" t="inlineStr">
         <is>
@@ -1993,13 +2367,19 @@
         </is>
       </c>
       <c r="Q27" t="n">
-        <v>150000000</v>
+        <v>100000000</v>
       </c>
       <c r="S27" t="n">
-        <v>415000000</v>
+        <v>315000000</v>
       </c>
       <c r="AH27" t="n">
         <v>0.05</v>
+      </c>
+      <c r="AM27" t="b">
+        <v>1</v>
+      </c>
+      <c r="AN27" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="28">
@@ -2010,7 +2390,7 @@
         <v>1</v>
       </c>
       <c r="E28" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="O28" t="inlineStr">
         <is>
@@ -2018,13 +2398,19 @@
         </is>
       </c>
       <c r="Q28" t="n">
-        <v>150000000</v>
+        <v>100000000</v>
       </c>
       <c r="S28" t="n">
-        <v>415000000</v>
+        <v>315000000</v>
       </c>
       <c r="AH28" t="n">
         <v>0.05</v>
+      </c>
+      <c r="AM28" t="b">
+        <v>1</v>
+      </c>
+      <c r="AN28" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="29">
@@ -2035,7 +2421,7 @@
         <v>1</v>
       </c>
       <c r="E29" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="O29" t="inlineStr">
         <is>
@@ -2043,13 +2429,19 @@
         </is>
       </c>
       <c r="Q29" t="n">
-        <v>150000000</v>
+        <v>100000000</v>
       </c>
       <c r="S29" t="n">
-        <v>415000000</v>
+        <v>315000000</v>
       </c>
       <c r="AH29" t="n">
         <v>0.05</v>
+      </c>
+      <c r="AM29" t="b">
+        <v>1</v>
+      </c>
+      <c r="AN29" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="30">
@@ -2060,7 +2452,7 @@
         <v>1</v>
       </c>
       <c r="E30" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="O30" t="inlineStr">
         <is>
@@ -2068,13 +2460,19 @@
         </is>
       </c>
       <c r="Q30" t="n">
-        <v>150000000</v>
+        <v>100000000</v>
       </c>
       <c r="S30" t="n">
-        <v>415000000</v>
+        <v>315000000</v>
       </c>
       <c r="AH30" t="n">
         <v>0.05</v>
+      </c>
+      <c r="AM30" t="b">
+        <v>1</v>
+      </c>
+      <c r="AN30" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="31">
@@ -2085,7 +2483,7 @@
         <v>1</v>
       </c>
       <c r="E31" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="O31" t="inlineStr">
         <is>
@@ -2093,13 +2491,19 @@
         </is>
       </c>
       <c r="Q31" t="n">
-        <v>43333333</v>
+        <v>66666666</v>
       </c>
       <c r="S31" t="n">
-        <v>23333333</v>
+        <v>210000000</v>
       </c>
       <c r="AH31" t="n">
         <v>0.05</v>
+      </c>
+      <c r="AM31" t="b">
+        <v>1</v>
+      </c>
+      <c r="AN31" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="32">
@@ -2110,21 +2514,27 @@
         <v>1</v>
       </c>
       <c r="E32" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="O32" t="inlineStr">
         <is>
-          <t>GBP</t>
+          <t>USD</t>
         </is>
       </c>
       <c r="Q32" t="n">
-        <v>33333333</v>
+        <v>150000000</v>
       </c>
       <c r="S32" t="n">
-        <v>43333333</v>
+        <v>415000000</v>
       </c>
       <c r="AH32" t="n">
         <v>0.05</v>
+      </c>
+      <c r="AM32" t="b">
+        <v>1</v>
+      </c>
+      <c r="AN32" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="33">
@@ -2135,21 +2545,27 @@
         <v>1</v>
       </c>
       <c r="E33" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="O33" t="inlineStr">
         <is>
-          <t>GBP</t>
+          <t>CAD</t>
         </is>
       </c>
       <c r="Q33" t="n">
-        <v>66666666</v>
+        <v>150000000</v>
       </c>
       <c r="S33" t="n">
-        <v>76666666</v>
+        <v>415000000</v>
       </c>
       <c r="AH33" t="n">
         <v>0.05</v>
+      </c>
+      <c r="AM33" t="b">
+        <v>1</v>
+      </c>
+      <c r="AN33" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="34">
@@ -2160,21 +2576,27 @@
         <v>1</v>
       </c>
       <c r="E34" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="O34" t="inlineStr">
         <is>
-          <t>GBP</t>
+          <t>EUR</t>
         </is>
       </c>
       <c r="Q34" t="n">
-        <v>66666666</v>
+        <v>150000000</v>
       </c>
       <c r="S34" t="n">
-        <v>143333333</v>
+        <v>415000000</v>
       </c>
       <c r="AH34" t="n">
         <v>0.05</v>
+      </c>
+      <c r="AM34" t="b">
+        <v>1</v>
+      </c>
+      <c r="AN34" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="35">
@@ -2185,21 +2607,27 @@
         <v>1</v>
       </c>
       <c r="E35" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="O35" t="inlineStr">
         <is>
-          <t>GBP</t>
+          <t>AUD</t>
         </is>
       </c>
       <c r="Q35" t="n">
-        <v>66666666</v>
+        <v>150000000</v>
       </c>
       <c r="S35" t="n">
-        <v>210000000</v>
+        <v>415000000</v>
       </c>
       <c r="AH35" t="n">
         <v>0.05</v>
+      </c>
+      <c r="AM35" t="b">
+        <v>1</v>
+      </c>
+      <c r="AN35" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="36">
@@ -2226,6 +2654,12 @@
       <c r="AH36" t="n">
         <v>0.05</v>
       </c>
+      <c r="AM36" t="b">
+        <v>1</v>
+      </c>
+      <c r="AN36" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
@@ -2237,19 +2671,20 @@
       <c r="E37" t="n">
         <v>8</v>
       </c>
-      <c r="I37" t="inlineStr">
-        <is>
-          <t>United States</t>
-        </is>
-      </c>
       <c r="Q37" t="n">
-        <v>8750000</v>
-      </c>
-      <c r="S37" t="n">
-        <v>3000000</v>
+        <v>575000000</v>
+      </c>
+      <c r="W37" t="n">
+        <v>0.25</v>
       </c>
       <c r="AH37" t="n">
-        <v>0.1</v>
+        <v>0.0165</v>
+      </c>
+      <c r="AM37" t="b">
+        <v>1</v>
+      </c>
+      <c r="AN37" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="38">
@@ -2262,19 +2697,20 @@
       <c r="E38" t="n">
         <v>9</v>
       </c>
-      <c r="I38" t="inlineStr">
-        <is>
-          <t>United States</t>
-        </is>
-      </c>
       <c r="Q38" t="n">
         <v>10000000</v>
       </c>
       <c r="S38" t="n">
-        <v>11750000</v>
+        <v>5000000</v>
       </c>
       <c r="AH38" t="n">
-        <v>0.1</v>
+        <v>0.05</v>
+      </c>
+      <c r="AM38" t="b">
+        <v>1</v>
+      </c>
+      <c r="AN38" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -2287,19 +2723,20 @@
       <c r="E39" t="n">
         <v>10</v>
       </c>
-      <c r="I39" t="inlineStr">
-        <is>
-          <t>United States</t>
-        </is>
-      </c>
       <c r="Q39" t="n">
-        <v>23250000</v>
+        <v>40000000</v>
       </c>
       <c r="S39" t="n">
-        <v>21750000</v>
+        <v>10000000</v>
       </c>
       <c r="AH39" t="n">
-        <v>0.0979</v>
+        <v>0.05</v>
+      </c>
+      <c r="AM39" t="b">
+        <v>0</v>
+      </c>
+      <c r="AN39" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="40">
@@ -2307,14 +2744,14 @@
         <v>39</v>
       </c>
       <c r="B40" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E40" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>Canada</t>
+          <t>United States</t>
         </is>
       </c>
       <c r="Q40" t="n">
@@ -2325,6 +2762,12 @@
       </c>
       <c r="AH40" t="n">
         <v>0.1</v>
+      </c>
+      <c r="AM40" t="b">
+        <v>1</v>
+      </c>
+      <c r="AN40" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="41">
@@ -2332,10 +2775,10 @@
         <v>40</v>
       </c>
       <c r="B41" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E41" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="I41" t="inlineStr">
         <is>
@@ -2343,13 +2786,19 @@
         </is>
       </c>
       <c r="Q41" t="n">
-        <v>10000000</v>
+        <v>8750000</v>
       </c>
       <c r="S41" t="n">
-        <v>11750000</v>
+        <v>3000000</v>
       </c>
       <c r="AH41" t="n">
         <v>0.1</v>
+      </c>
+      <c r="AM41" t="b">
+        <v>1</v>
+      </c>
+      <c r="AN41" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="42">
@@ -2357,24 +2806,30 @@
         <v>41</v>
       </c>
       <c r="B42" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E42" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>Canada</t>
+          <t>United States</t>
         </is>
       </c>
       <c r="Q42" t="n">
-        <v>23250000</v>
+        <v>10000000</v>
       </c>
       <c r="S42" t="n">
-        <v>21750000</v>
+        <v>11750000</v>
       </c>
       <c r="AH42" t="n">
-        <v>0.0979</v>
+        <v>0.1</v>
+      </c>
+      <c r="AM42" t="b">
+        <v>1</v>
+      </c>
+      <c r="AN42" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="43">
@@ -2385,16 +2840,27 @@
         <v>3</v>
       </c>
       <c r="E43" t="n">
-        <v>11</v>
+        <v>12</v>
+      </c>
+      <c r="I43" t="inlineStr">
+        <is>
+          <t>Canada</t>
+        </is>
       </c>
       <c r="Q43" t="n">
-        <v>25000000</v>
-      </c>
-      <c r="W43" t="n">
-        <v>1</v>
+        <v>10000000</v>
+      </c>
+      <c r="S43" t="n">
+        <v>11750000</v>
       </c>
       <c r="AH43" t="n">
         <v>0.1</v>
+      </c>
+      <c r="AM43" t="b">
+        <v>1</v>
+      </c>
+      <c r="AN43" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="44">
@@ -2405,26 +2871,27 @@
         <v>3</v>
       </c>
       <c r="E44" t="n">
-        <v>11</v>
-      </c>
-      <c r="F44" t="inlineStr">
-        <is>
-          <t>INCLUDE</t>
-        </is>
-      </c>
-      <c r="H44" t="inlineStr">
-        <is>
-          <t>cyber</t>
+        <v>13</v>
+      </c>
+      <c r="I44" t="inlineStr">
+        <is>
+          <t>United States</t>
         </is>
       </c>
       <c r="Q44" t="n">
-        <v>10000000</v>
-      </c>
-      <c r="W44" t="n">
-        <v>1</v>
+        <v>23250000</v>
+      </c>
+      <c r="S44" t="n">
+        <v>21750000</v>
       </c>
       <c r="AH44" t="n">
-        <v>0.1</v>
+        <v>0.0979</v>
+      </c>
+      <c r="AM44" t="b">
+        <v>1</v>
+      </c>
+      <c r="AN44" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="45">
@@ -2432,13 +2899,1865 @@
         <v>44</v>
       </c>
       <c r="B45" t="n">
+        <v>3</v>
+      </c>
+      <c r="E45" t="n">
+        <v>13</v>
+      </c>
+      <c r="I45" t="inlineStr">
+        <is>
+          <t>Canada</t>
+        </is>
+      </c>
+      <c r="Q45" t="n">
+        <v>23250000</v>
+      </c>
+      <c r="S45" t="n">
+        <v>21750000</v>
+      </c>
+      <c r="AH45" t="n">
+        <v>0.0979</v>
+      </c>
+      <c r="AM45" t="b">
+        <v>1</v>
+      </c>
+      <c r="AN45" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>45</v>
+      </c>
+      <c r="B46" t="n">
         <v>4</v>
       </c>
-      <c r="E45" t="n">
-        <v>12</v>
-      </c>
-      <c r="W45" t="n">
+      <c r="E46" t="n">
+        <v>14</v>
+      </c>
+      <c r="Q46" t="n">
+        <v>25000000</v>
+      </c>
+      <c r="W46" t="n">
+        <v>1</v>
+      </c>
+      <c r="AH46" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="AM46" t="b">
+        <v>1</v>
+      </c>
+      <c r="AN46" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>46</v>
+      </c>
+      <c r="B47" t="n">
+        <v>4</v>
+      </c>
+      <c r="E47" t="n">
+        <v>14</v>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>INCLUDE</t>
+        </is>
+      </c>
+      <c r="H47" t="inlineStr">
+        <is>
+          <t>cyber</t>
+        </is>
+      </c>
+      <c r="Q47" t="n">
+        <v>10000000</v>
+      </c>
+      <c r="W47" t="n">
+        <v>1</v>
+      </c>
+      <c r="AH47" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="AM47" t="b">
+        <v>1</v>
+      </c>
+      <c r="AN47" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>47</v>
+      </c>
+      <c r="B48" t="n">
+        <v>5</v>
+      </c>
+      <c r="E48" t="n">
+        <v>15</v>
+      </c>
+      <c r="L48" t="inlineStr">
+        <is>
+          <t>Financial Institutions</t>
+        </is>
+      </c>
+      <c r="O48" t="inlineStr">
+        <is>
+          <t>GBP</t>
+        </is>
+      </c>
+      <c r="Q48" t="n">
+        <v>3000000</v>
+      </c>
+      <c r="S48" t="n">
+        <v>1000000</v>
+      </c>
+      <c r="AH48" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="AM48" t="b">
+        <v>1</v>
+      </c>
+      <c r="AN48" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>48</v>
+      </c>
+      <c r="B49" t="n">
+        <v>5</v>
+      </c>
+      <c r="E49" t="n">
+        <v>15</v>
+      </c>
+      <c r="L49" t="inlineStr">
+        <is>
+          <t>Commercial Crime</t>
+        </is>
+      </c>
+      <c r="O49" t="inlineStr">
+        <is>
+          <t>GBP</t>
+        </is>
+      </c>
+      <c r="Q49" t="n">
+        <v>3000000</v>
+      </c>
+      <c r="S49" t="n">
+        <v>1000000</v>
+      </c>
+      <c r="AH49" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="AM49" t="b">
+        <v>1</v>
+      </c>
+      <c r="AN49" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>49</v>
+      </c>
+      <c r="B50" t="n">
+        <v>5</v>
+      </c>
+      <c r="E50" t="n">
+        <v>15</v>
+      </c>
+      <c r="L50" t="inlineStr">
+        <is>
+          <t>Professional Indemnity / Errors and Omissions</t>
+        </is>
+      </c>
+      <c r="O50" t="inlineStr">
+        <is>
+          <t>GBP</t>
+        </is>
+      </c>
+      <c r="Q50" t="n">
+        <v>3000000</v>
+      </c>
+      <c r="S50" t="n">
+        <v>1000000</v>
+      </c>
+      <c r="AH50" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="AM50" t="b">
+        <v>1</v>
+      </c>
+      <c r="AN50" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>50</v>
+      </c>
+      <c r="B51" t="n">
+        <v>5</v>
+      </c>
+      <c r="E51" t="n">
+        <v>15</v>
+      </c>
+      <c r="L51" t="inlineStr">
+        <is>
+          <t>Commercial Directors and Officers</t>
+        </is>
+      </c>
+      <c r="O51" t="inlineStr">
+        <is>
+          <t>GBP</t>
+        </is>
+      </c>
+      <c r="Q51" t="n">
+        <v>3000000</v>
+      </c>
+      <c r="S51" t="n">
+        <v>1000000</v>
+      </c>
+      <c r="AH51" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="AM51" t="b">
+        <v>1</v>
+      </c>
+      <c r="AN51" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>51</v>
+      </c>
+      <c r="B52" t="n">
+        <v>5</v>
+      </c>
+      <c r="E52" t="n">
+        <v>15</v>
+      </c>
+      <c r="L52" t="inlineStr">
+        <is>
+          <t>Medical Malpractice</t>
+        </is>
+      </c>
+      <c r="O52" t="inlineStr">
+        <is>
+          <t>GBP</t>
+        </is>
+      </c>
+      <c r="Q52" t="n">
+        <v>3000000</v>
+      </c>
+      <c r="S52" t="n">
+        <v>1000000</v>
+      </c>
+      <c r="AH52" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="AM52" t="b">
+        <v>1</v>
+      </c>
+      <c r="AN52" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>52</v>
+      </c>
+      <c r="B53" t="n">
+        <v>5</v>
+      </c>
+      <c r="E53" t="n">
+        <v>15</v>
+      </c>
+      <c r="L53" t="inlineStr">
+        <is>
+          <t>Transactional Liability</t>
+        </is>
+      </c>
+      <c r="O53" t="inlineStr">
+        <is>
+          <t>GBP</t>
+        </is>
+      </c>
+      <c r="Q53" t="n">
+        <v>3000000</v>
+      </c>
+      <c r="S53" t="n">
+        <v>1000000</v>
+      </c>
+      <c r="AH53" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="AM53" t="b">
+        <v>1</v>
+      </c>
+      <c r="AN53" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>53</v>
+      </c>
+      <c r="B54" t="n">
+        <v>5</v>
+      </c>
+      <c r="E54" t="n">
+        <v>15</v>
+      </c>
+      <c r="L54" t="inlineStr">
+        <is>
+          <t>Financial Institutions</t>
+        </is>
+      </c>
+      <c r="O54" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="Q54" t="n">
+        <v>4500000</v>
+      </c>
+      <c r="S54" t="n">
+        <v>1500000</v>
+      </c>
+      <c r="AH54" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="AM54" t="b">
+        <v>1</v>
+      </c>
+      <c r="AN54" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>54</v>
+      </c>
+      <c r="B55" t="n">
+        <v>5</v>
+      </c>
+      <c r="E55" t="n">
+        <v>15</v>
+      </c>
+      <c r="L55" t="inlineStr">
+        <is>
+          <t>Commercial Crime</t>
+        </is>
+      </c>
+      <c r="O55" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="Q55" t="n">
+        <v>4500000</v>
+      </c>
+      <c r="S55" t="n">
+        <v>1500000</v>
+      </c>
+      <c r="AH55" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="AM55" t="b">
+        <v>1</v>
+      </c>
+      <c r="AN55" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>55</v>
+      </c>
+      <c r="B56" t="n">
+        <v>5</v>
+      </c>
+      <c r="E56" t="n">
+        <v>15</v>
+      </c>
+      <c r="L56" t="inlineStr">
+        <is>
+          <t>Professional Indemnity / Errors and Omissions</t>
+        </is>
+      </c>
+      <c r="O56" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="Q56" t="n">
+        <v>4500000</v>
+      </c>
+      <c r="S56" t="n">
+        <v>1500000</v>
+      </c>
+      <c r="AH56" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="AM56" t="b">
+        <v>1</v>
+      </c>
+      <c r="AN56" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>56</v>
+      </c>
+      <c r="B57" t="n">
+        <v>5</v>
+      </c>
+      <c r="E57" t="n">
+        <v>15</v>
+      </c>
+      <c r="L57" t="inlineStr">
+        <is>
+          <t>Commercial Directors and Officers</t>
+        </is>
+      </c>
+      <c r="O57" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="Q57" t="n">
+        <v>4500000</v>
+      </c>
+      <c r="S57" t="n">
+        <v>1500000</v>
+      </c>
+      <c r="AH57" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="AM57" t="b">
+        <v>1</v>
+      </c>
+      <c r="AN57" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>57</v>
+      </c>
+      <c r="B58" t="n">
+        <v>5</v>
+      </c>
+      <c r="E58" t="n">
+        <v>15</v>
+      </c>
+      <c r="L58" t="inlineStr">
+        <is>
+          <t>Medical Malpractice</t>
+        </is>
+      </c>
+      <c r="O58" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="Q58" t="n">
+        <v>4500000</v>
+      </c>
+      <c r="S58" t="n">
+        <v>1500000</v>
+      </c>
+      <c r="AH58" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="AM58" t="b">
+        <v>1</v>
+      </c>
+      <c r="AN58" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>58</v>
+      </c>
+      <c r="B59" t="n">
+        <v>5</v>
+      </c>
+      <c r="E59" t="n">
+        <v>15</v>
+      </c>
+      <c r="L59" t="inlineStr">
+        <is>
+          <t>Transactional Liability</t>
+        </is>
+      </c>
+      <c r="O59" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="Q59" t="n">
+        <v>4500000</v>
+      </c>
+      <c r="S59" t="n">
+        <v>1500000</v>
+      </c>
+      <c r="AH59" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="AM59" t="b">
+        <v>1</v>
+      </c>
+      <c r="AN59" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>59</v>
+      </c>
+      <c r="B60" t="n">
+        <v>5</v>
+      </c>
+      <c r="E60" t="n">
+        <v>15</v>
+      </c>
+      <c r="L60" t="inlineStr">
+        <is>
+          <t>Financial Institutions</t>
+        </is>
+      </c>
+      <c r="O60" t="inlineStr">
+        <is>
+          <t>EUR</t>
+        </is>
+      </c>
+      <c r="Q60" t="n">
+        <v>4500000</v>
+      </c>
+      <c r="S60" t="n">
+        <v>1500000</v>
+      </c>
+      <c r="AH60" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="AM60" t="b">
+        <v>1</v>
+      </c>
+      <c r="AN60" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>60</v>
+      </c>
+      <c r="B61" t="n">
+        <v>5</v>
+      </c>
+      <c r="E61" t="n">
+        <v>15</v>
+      </c>
+      <c r="L61" t="inlineStr">
+        <is>
+          <t>Commercial Crime</t>
+        </is>
+      </c>
+      <c r="O61" t="inlineStr">
+        <is>
+          <t>EUR</t>
+        </is>
+      </c>
+      <c r="Q61" t="n">
+        <v>4500000</v>
+      </c>
+      <c r="S61" t="n">
+        <v>1500000</v>
+      </c>
+      <c r="AH61" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="AM61" t="b">
+        <v>1</v>
+      </c>
+      <c r="AN61" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>61</v>
+      </c>
+      <c r="B62" t="n">
+        <v>5</v>
+      </c>
+      <c r="E62" t="n">
+        <v>15</v>
+      </c>
+      <c r="L62" t="inlineStr">
+        <is>
+          <t>Professional Indemnity / Errors and Omissions</t>
+        </is>
+      </c>
+      <c r="O62" t="inlineStr">
+        <is>
+          <t>EUR</t>
+        </is>
+      </c>
+      <c r="Q62" t="n">
+        <v>4500000</v>
+      </c>
+      <c r="S62" t="n">
+        <v>1500000</v>
+      </c>
+      <c r="AH62" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="AM62" t="b">
+        <v>1</v>
+      </c>
+      <c r="AN62" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>62</v>
+      </c>
+      <c r="B63" t="n">
+        <v>5</v>
+      </c>
+      <c r="E63" t="n">
+        <v>15</v>
+      </c>
+      <c r="L63" t="inlineStr">
+        <is>
+          <t>Commercial Directors and Officers</t>
+        </is>
+      </c>
+      <c r="O63" t="inlineStr">
+        <is>
+          <t>EUR</t>
+        </is>
+      </c>
+      <c r="Q63" t="n">
+        <v>4500000</v>
+      </c>
+      <c r="S63" t="n">
+        <v>1500000</v>
+      </c>
+      <c r="AH63" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="AM63" t="b">
+        <v>1</v>
+      </c>
+      <c r="AN63" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>63</v>
+      </c>
+      <c r="B64" t="n">
+        <v>5</v>
+      </c>
+      <c r="E64" t="n">
+        <v>15</v>
+      </c>
+      <c r="L64" t="inlineStr">
+        <is>
+          <t>Medical Malpractice</t>
+        </is>
+      </c>
+      <c r="O64" t="inlineStr">
+        <is>
+          <t>EUR</t>
+        </is>
+      </c>
+      <c r="Q64" t="n">
+        <v>4500000</v>
+      </c>
+      <c r="S64" t="n">
+        <v>1500000</v>
+      </c>
+      <c r="AH64" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="AM64" t="b">
+        <v>1</v>
+      </c>
+      <c r="AN64" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>64</v>
+      </c>
+      <c r="B65" t="n">
+        <v>5</v>
+      </c>
+      <c r="E65" t="n">
+        <v>15</v>
+      </c>
+      <c r="L65" t="inlineStr">
+        <is>
+          <t>Transactional Liability</t>
+        </is>
+      </c>
+      <c r="O65" t="inlineStr">
+        <is>
+          <t>EUR</t>
+        </is>
+      </c>
+      <c r="Q65" t="n">
+        <v>4500000</v>
+      </c>
+      <c r="S65" t="n">
+        <v>1500000</v>
+      </c>
+      <c r="AH65" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="AM65" t="b">
+        <v>1</v>
+      </c>
+      <c r="AN65" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>65</v>
+      </c>
+      <c r="B66" t="n">
+        <v>5</v>
+      </c>
+      <c r="E66" t="n">
+        <v>15</v>
+      </c>
+      <c r="L66" t="inlineStr">
+        <is>
+          <t>Financial Institutions</t>
+        </is>
+      </c>
+      <c r="O66" t="inlineStr">
+        <is>
+          <t>CAD</t>
+        </is>
+      </c>
+      <c r="Q66" t="n">
+        <v>5250000</v>
+      </c>
+      <c r="S66" t="n">
+        <v>1750000</v>
+      </c>
+      <c r="AH66" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="AM66" t="b">
+        <v>1</v>
+      </c>
+      <c r="AN66" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>66</v>
+      </c>
+      <c r="B67" t="n">
+        <v>5</v>
+      </c>
+      <c r="E67" t="n">
+        <v>15</v>
+      </c>
+      <c r="L67" t="inlineStr">
+        <is>
+          <t>Commercial Crime</t>
+        </is>
+      </c>
+      <c r="O67" t="inlineStr">
+        <is>
+          <t>CAD</t>
+        </is>
+      </c>
+      <c r="Q67" t="n">
+        <v>5250000</v>
+      </c>
+      <c r="S67" t="n">
+        <v>1750000</v>
+      </c>
+      <c r="AH67" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="AM67" t="b">
+        <v>1</v>
+      </c>
+      <c r="AN67" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>67</v>
+      </c>
+      <c r="B68" t="n">
+        <v>5</v>
+      </c>
+      <c r="E68" t="n">
+        <v>15</v>
+      </c>
+      <c r="L68" t="inlineStr">
+        <is>
+          <t>Professional Indemnity / Errors and Omissions</t>
+        </is>
+      </c>
+      <c r="O68" t="inlineStr">
+        <is>
+          <t>CAD</t>
+        </is>
+      </c>
+      <c r="Q68" t="n">
+        <v>5250000</v>
+      </c>
+      <c r="S68" t="n">
+        <v>1750000</v>
+      </c>
+      <c r="AH68" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="AM68" t="b">
+        <v>1</v>
+      </c>
+      <c r="AN68" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>68</v>
+      </c>
+      <c r="B69" t="n">
+        <v>5</v>
+      </c>
+      <c r="E69" t="n">
+        <v>15</v>
+      </c>
+      <c r="L69" t="inlineStr">
+        <is>
+          <t>Commercial Directors and Officers</t>
+        </is>
+      </c>
+      <c r="O69" t="inlineStr">
+        <is>
+          <t>CAD</t>
+        </is>
+      </c>
+      <c r="Q69" t="n">
+        <v>5250000</v>
+      </c>
+      <c r="S69" t="n">
+        <v>1750000</v>
+      </c>
+      <c r="AH69" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="AM69" t="b">
+        <v>1</v>
+      </c>
+      <c r="AN69" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>69</v>
+      </c>
+      <c r="B70" t="n">
+        <v>5</v>
+      </c>
+      <c r="E70" t="n">
+        <v>15</v>
+      </c>
+      <c r="L70" t="inlineStr">
+        <is>
+          <t>Medical Malpractice</t>
+        </is>
+      </c>
+      <c r="O70" t="inlineStr">
+        <is>
+          <t>CAD</t>
+        </is>
+      </c>
+      <c r="Q70" t="n">
+        <v>5250000</v>
+      </c>
+      <c r="S70" t="n">
+        <v>1750000</v>
+      </c>
+      <c r="AH70" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="AM70" t="b">
+        <v>1</v>
+      </c>
+      <c r="AN70" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>70</v>
+      </c>
+      <c r="B71" t="n">
+        <v>5</v>
+      </c>
+      <c r="E71" t="n">
+        <v>15</v>
+      </c>
+      <c r="L71" t="inlineStr">
+        <is>
+          <t>Transactional Liability</t>
+        </is>
+      </c>
+      <c r="O71" t="inlineStr">
+        <is>
+          <t>CAD</t>
+        </is>
+      </c>
+      <c r="Q71" t="n">
+        <v>5250000</v>
+      </c>
+      <c r="S71" t="n">
+        <v>1750000</v>
+      </c>
+      <c r="AH71" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="AM71" t="b">
+        <v>1</v>
+      </c>
+      <c r="AN71" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>71</v>
+      </c>
+      <c r="B72" t="n">
+        <v>5</v>
+      </c>
+      <c r="E72" t="n">
+        <v>15</v>
+      </c>
+      <c r="L72" t="inlineStr">
+        <is>
+          <t>Financial Institutions</t>
+        </is>
+      </c>
+      <c r="O72" t="inlineStr">
+        <is>
+          <t>AUD</t>
+        </is>
+      </c>
+      <c r="Q72" t="n">
+        <v>8000000</v>
+      </c>
+      <c r="S72" t="n">
+        <v>2000000</v>
+      </c>
+      <c r="AH72" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="AM72" t="b">
+        <v>1</v>
+      </c>
+      <c r="AN72" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>72</v>
+      </c>
+      <c r="B73" t="n">
+        <v>5</v>
+      </c>
+      <c r="E73" t="n">
+        <v>15</v>
+      </c>
+      <c r="L73" t="inlineStr">
+        <is>
+          <t>Commercial Crime</t>
+        </is>
+      </c>
+      <c r="O73" t="inlineStr">
+        <is>
+          <t>AUD</t>
+        </is>
+      </c>
+      <c r="Q73" t="n">
+        <v>8000000</v>
+      </c>
+      <c r="S73" t="n">
+        <v>2000000</v>
+      </c>
+      <c r="AH73" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="AM73" t="b">
+        <v>1</v>
+      </c>
+      <c r="AN73" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>73</v>
+      </c>
+      <c r="B74" t="n">
+        <v>5</v>
+      </c>
+      <c r="E74" t="n">
+        <v>15</v>
+      </c>
+      <c r="L74" t="inlineStr">
+        <is>
+          <t>Professional Indemnity / Errors and Omissions</t>
+        </is>
+      </c>
+      <c r="O74" t="inlineStr">
+        <is>
+          <t>AUD</t>
+        </is>
+      </c>
+      <c r="Q74" t="n">
+        <v>8000000</v>
+      </c>
+      <c r="S74" t="n">
+        <v>2000000</v>
+      </c>
+      <c r="AH74" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="AM74" t="b">
+        <v>1</v>
+      </c>
+      <c r="AN74" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="n">
+        <v>74</v>
+      </c>
+      <c r="B75" t="n">
+        <v>5</v>
+      </c>
+      <c r="E75" t="n">
+        <v>15</v>
+      </c>
+      <c r="L75" t="inlineStr">
+        <is>
+          <t>Commercial Directors and Officers</t>
+        </is>
+      </c>
+      <c r="O75" t="inlineStr">
+        <is>
+          <t>AUD</t>
+        </is>
+      </c>
+      <c r="Q75" t="n">
+        <v>8000000</v>
+      </c>
+      <c r="S75" t="n">
+        <v>2000000</v>
+      </c>
+      <c r="AH75" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="AM75" t="b">
+        <v>1</v>
+      </c>
+      <c r="AN75" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="n">
+        <v>75</v>
+      </c>
+      <c r="B76" t="n">
+        <v>5</v>
+      </c>
+      <c r="E76" t="n">
+        <v>15</v>
+      </c>
+      <c r="L76" t="inlineStr">
+        <is>
+          <t>Medical Malpractice</t>
+        </is>
+      </c>
+      <c r="O76" t="inlineStr">
+        <is>
+          <t>AUD</t>
+        </is>
+      </c>
+      <c r="Q76" t="n">
+        <v>8000000</v>
+      </c>
+      <c r="S76" t="n">
+        <v>2000000</v>
+      </c>
+      <c r="AH76" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="AM76" t="b">
+        <v>1</v>
+      </c>
+      <c r="AN76" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="n">
+        <v>76</v>
+      </c>
+      <c r="B77" t="n">
+        <v>5</v>
+      </c>
+      <c r="E77" t="n">
+        <v>15</v>
+      </c>
+      <c r="L77" t="inlineStr">
+        <is>
+          <t>Transactional Liability</t>
+        </is>
+      </c>
+      <c r="O77" t="inlineStr">
+        <is>
+          <t>AUD</t>
+        </is>
+      </c>
+      <c r="Q77" t="n">
+        <v>8000000</v>
+      </c>
+      <c r="S77" t="n">
+        <v>2000000</v>
+      </c>
+      <c r="AH77" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="AM77" t="b">
+        <v>1</v>
+      </c>
+      <c r="AN77" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="n">
+        <v>77</v>
+      </c>
+      <c r="B78" t="n">
+        <v>5</v>
+      </c>
+      <c r="E78" t="n">
+        <v>15</v>
+      </c>
+      <c r="L78" t="inlineStr">
+        <is>
+          <t>Employers' Liability</t>
+        </is>
+      </c>
+      <c r="O78" t="inlineStr">
+        <is>
+          <t>GBP</t>
+        </is>
+      </c>
+      <c r="Q78" t="n">
+        <v>2500000</v>
+      </c>
+      <c r="S78" t="n">
+        <v>1500000</v>
+      </c>
+      <c r="AH78" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="AM78" t="b">
+        <v>1</v>
+      </c>
+      <c r="AN78" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="n">
+        <v>78</v>
+      </c>
+      <c r="B79" t="n">
+        <v>5</v>
+      </c>
+      <c r="E79" t="n">
+        <v>15</v>
+      </c>
+      <c r="L79" t="inlineStr">
+        <is>
+          <t>General Liability</t>
+        </is>
+      </c>
+      <c r="O79" t="inlineStr">
+        <is>
+          <t>GBP</t>
+        </is>
+      </c>
+      <c r="Q79" t="n">
+        <v>2500000</v>
+      </c>
+      <c r="S79" t="n">
+        <v>1500000</v>
+      </c>
+      <c r="AH79" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="AM79" t="b">
+        <v>1</v>
+      </c>
+      <c r="AN79" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="n">
+        <v>79</v>
+      </c>
+      <c r="B80" t="n">
+        <v>5</v>
+      </c>
+      <c r="E80" t="n">
+        <v>15</v>
+      </c>
+      <c r="L80" t="inlineStr">
+        <is>
+          <t>Employers' Liability</t>
+        </is>
+      </c>
+      <c r="O80" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="Q80" t="n">
+        <v>3750000</v>
+      </c>
+      <c r="S80" t="n">
+        <v>2250000</v>
+      </c>
+      <c r="AH80" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="AM80" t="b">
+        <v>1</v>
+      </c>
+      <c r="AN80" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="n">
+        <v>80</v>
+      </c>
+      <c r="B81" t="n">
+        <v>5</v>
+      </c>
+      <c r="E81" t="n">
+        <v>15</v>
+      </c>
+      <c r="L81" t="inlineStr">
+        <is>
+          <t>General Liability</t>
+        </is>
+      </c>
+      <c r="O81" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="Q81" t="n">
+        <v>3750000</v>
+      </c>
+      <c r="S81" t="n">
+        <v>2250000</v>
+      </c>
+      <c r="AH81" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="AM81" t="b">
+        <v>1</v>
+      </c>
+      <c r="AN81" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="n">
+        <v>81</v>
+      </c>
+      <c r="B82" t="n">
+        <v>5</v>
+      </c>
+      <c r="E82" t="n">
+        <v>15</v>
+      </c>
+      <c r="L82" t="inlineStr">
+        <is>
+          <t>Employers' Liability</t>
+        </is>
+      </c>
+      <c r="O82" t="inlineStr">
+        <is>
+          <t>EUR</t>
+        </is>
+      </c>
+      <c r="Q82" t="n">
+        <v>3750000</v>
+      </c>
+      <c r="S82" t="n">
+        <v>2250000</v>
+      </c>
+      <c r="AH82" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="AM82" t="b">
+        <v>1</v>
+      </c>
+      <c r="AN82" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="n">
+        <v>82</v>
+      </c>
+      <c r="B83" t="n">
+        <v>5</v>
+      </c>
+      <c r="E83" t="n">
+        <v>15</v>
+      </c>
+      <c r="L83" t="inlineStr">
+        <is>
+          <t>General Liability</t>
+        </is>
+      </c>
+      <c r="O83" t="inlineStr">
+        <is>
+          <t>EUR</t>
+        </is>
+      </c>
+      <c r="Q83" t="n">
+        <v>3750000</v>
+      </c>
+      <c r="S83" t="n">
+        <v>2250000</v>
+      </c>
+      <c r="AH83" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="AM83" t="b">
+        <v>1</v>
+      </c>
+      <c r="AN83" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="n">
+        <v>83</v>
+      </c>
+      <c r="B84" t="n">
+        <v>5</v>
+      </c>
+      <c r="E84" t="n">
+        <v>15</v>
+      </c>
+      <c r="L84" t="inlineStr">
+        <is>
+          <t>Employers' Liability</t>
+        </is>
+      </c>
+      <c r="O84" t="inlineStr">
+        <is>
+          <t>CAD</t>
+        </is>
+      </c>
+      <c r="Q84" t="n">
+        <v>4375000</v>
+      </c>
+      <c r="S84" t="n">
+        <v>2625000</v>
+      </c>
+      <c r="AH84" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="AM84" t="b">
+        <v>1</v>
+      </c>
+      <c r="AN84" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="n">
+        <v>84</v>
+      </c>
+      <c r="B85" t="n">
+        <v>5</v>
+      </c>
+      <c r="E85" t="n">
+        <v>15</v>
+      </c>
+      <c r="L85" t="inlineStr">
+        <is>
+          <t>General Liability</t>
+        </is>
+      </c>
+      <c r="O85" t="inlineStr">
+        <is>
+          <t>CAD</t>
+        </is>
+      </c>
+      <c r="Q85" t="n">
+        <v>4375000</v>
+      </c>
+      <c r="S85" t="n">
+        <v>2625000</v>
+      </c>
+      <c r="AH85" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="AM85" t="b">
+        <v>1</v>
+      </c>
+      <c r="AN85" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="n">
+        <v>85</v>
+      </c>
+      <c r="B86" t="n">
+        <v>5</v>
+      </c>
+      <c r="E86" t="n">
+        <v>15</v>
+      </c>
+      <c r="L86" t="inlineStr">
+        <is>
+          <t>Employers' Liability</t>
+        </is>
+      </c>
+      <c r="O86" t="inlineStr">
+        <is>
+          <t>AUD</t>
+        </is>
+      </c>
+      <c r="Q86" t="n">
+        <v>7000000</v>
+      </c>
+      <c r="S86" t="n">
+        <v>3000000</v>
+      </c>
+      <c r="AH86" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="AM86" t="b">
+        <v>1</v>
+      </c>
+      <c r="AN86" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="n">
+        <v>86</v>
+      </c>
+      <c r="B87" t="n">
+        <v>5</v>
+      </c>
+      <c r="E87" t="n">
+        <v>15</v>
+      </c>
+      <c r="L87" t="inlineStr">
+        <is>
+          <t>General Liability</t>
+        </is>
+      </c>
+      <c r="O87" t="inlineStr">
+        <is>
+          <t>AUD</t>
+        </is>
+      </c>
+      <c r="Q87" t="n">
+        <v>7000000</v>
+      </c>
+      <c r="S87" t="n">
+        <v>3000000</v>
+      </c>
+      <c r="AH87" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="AM87" t="b">
+        <v>1</v>
+      </c>
+      <c r="AN87" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="n">
+        <v>87</v>
+      </c>
+      <c r="B88" t="n">
+        <v>5</v>
+      </c>
+      <c r="E88" t="n">
+        <v>16</v>
+      </c>
+      <c r="O88" t="inlineStr">
+        <is>
+          <t>GBP</t>
+        </is>
+      </c>
+      <c r="Q88" t="n">
+        <v>6000000</v>
+      </c>
+      <c r="S88" t="n">
+        <v>4000000</v>
+      </c>
+      <c r="AH88" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="AM88" t="b">
+        <v>1</v>
+      </c>
+      <c r="AN88" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="n">
+        <v>88</v>
+      </c>
+      <c r="B89" t="n">
+        <v>5</v>
+      </c>
+      <c r="E89" t="n">
+        <v>16</v>
+      </c>
+      <c r="O89" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="Q89" t="n">
+        <v>9000000</v>
+      </c>
+      <c r="S89" t="n">
+        <v>6000000</v>
+      </c>
+      <c r="AH89" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="AM89" t="b">
+        <v>1</v>
+      </c>
+      <c r="AN89" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="n">
+        <v>89</v>
+      </c>
+      <c r="B90" t="n">
+        <v>5</v>
+      </c>
+      <c r="E90" t="n">
+        <v>16</v>
+      </c>
+      <c r="O90" t="inlineStr">
+        <is>
+          <t>EUR</t>
+        </is>
+      </c>
+      <c r="Q90" t="n">
+        <v>9000000</v>
+      </c>
+      <c r="S90" t="n">
+        <v>6000000</v>
+      </c>
+      <c r="AH90" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="AM90" t="b">
+        <v>1</v>
+      </c>
+      <c r="AN90" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="n">
+        <v>90</v>
+      </c>
+      <c r="B91" t="n">
+        <v>5</v>
+      </c>
+      <c r="E91" t="n">
+        <v>16</v>
+      </c>
+      <c r="O91" t="inlineStr">
+        <is>
+          <t>CAD</t>
+        </is>
+      </c>
+      <c r="Q91" t="n">
+        <v>10500000</v>
+      </c>
+      <c r="S91" t="n">
+        <v>7000000</v>
+      </c>
+      <c r="AH91" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="AM91" t="b">
+        <v>1</v>
+      </c>
+      <c r="AN91" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="n">
+        <v>91</v>
+      </c>
+      <c r="B92" t="n">
+        <v>5</v>
+      </c>
+      <c r="E92" t="n">
+        <v>16</v>
+      </c>
+      <c r="O92" t="inlineStr">
+        <is>
+          <t>AUD</t>
+        </is>
+      </c>
+      <c r="Q92" t="n">
+        <v>15000000</v>
+      </c>
+      <c r="S92" t="n">
+        <v>10000000</v>
+      </c>
+      <c r="AH92" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="AM92" t="b">
+        <v>1</v>
+      </c>
+      <c r="AN92" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="n">
+        <v>92</v>
+      </c>
+      <c r="B93" t="n">
+        <v>5</v>
+      </c>
+      <c r="E93" t="n">
+        <v>17</v>
+      </c>
+      <c r="O93" t="inlineStr">
+        <is>
+          <t>GBP</t>
+        </is>
+      </c>
+      <c r="Q93" t="n">
+        <v>5000000</v>
+      </c>
+      <c r="S93" t="n">
+        <v>10000000</v>
+      </c>
+      <c r="AH93" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="AM93" t="b">
+        <v>1</v>
+      </c>
+      <c r="AN93" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="n">
+        <v>93</v>
+      </c>
+      <c r="B94" t="n">
+        <v>5</v>
+      </c>
+      <c r="E94" t="n">
+        <v>17</v>
+      </c>
+      <c r="O94" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="Q94" t="n">
+        <v>10000000</v>
+      </c>
+      <c r="S94" t="n">
+        <v>15000000</v>
+      </c>
+      <c r="AH94" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="AM94" t="b">
+        <v>1</v>
+      </c>
+      <c r="AN94" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="n">
+        <v>94</v>
+      </c>
+      <c r="B95" t="n">
+        <v>5</v>
+      </c>
+      <c r="E95" t="n">
+        <v>17</v>
+      </c>
+      <c r="O95" t="inlineStr">
+        <is>
+          <t>EUR</t>
+        </is>
+      </c>
+      <c r="Q95" t="n">
+        <v>10000000</v>
+      </c>
+      <c r="S95" t="n">
+        <v>15000000</v>
+      </c>
+      <c r="AH95" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="AM95" t="b">
+        <v>1</v>
+      </c>
+      <c r="AN95" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="n">
+        <v>95</v>
+      </c>
+      <c r="B96" t="n">
+        <v>5</v>
+      </c>
+      <c r="E96" t="n">
+        <v>17</v>
+      </c>
+      <c r="O96" t="inlineStr">
+        <is>
+          <t>CAD</t>
+        </is>
+      </c>
+      <c r="Q96" t="n">
+        <v>8750000</v>
+      </c>
+      <c r="S96" t="n">
+        <v>17500000</v>
+      </c>
+      <c r="AH96" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="AM96" t="b">
+        <v>1</v>
+      </c>
+      <c r="AN96" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="n">
+        <v>96</v>
+      </c>
+      <c r="B97" t="n">
+        <v>5</v>
+      </c>
+      <c r="E97" t="n">
+        <v>17</v>
+      </c>
+      <c r="O97" t="inlineStr">
+        <is>
+          <t>AUD</t>
+        </is>
+      </c>
+      <c r="Q97" t="n">
+        <v>5000000</v>
+      </c>
+      <c r="S97" t="n">
+        <v>25000000</v>
+      </c>
+      <c r="AH97" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="AM97" t="b">
+        <v>1</v>
+      </c>
+      <c r="AN97" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="n">
+        <v>97</v>
+      </c>
+      <c r="B98" t="n">
+        <v>6</v>
+      </c>
+      <c r="E98" t="n">
+        <v>18</v>
+      </c>
+      <c r="W98" t="n">
         <v>0.3</v>
+      </c>
+      <c r="AH98" t="n">
+        <v>1</v>
+      </c>
+      <c r="AM98" t="b">
+        <v>1</v>
+      </c>
+      <c r="AN98" t="b">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/examples/programs/all_programs.xlsx
+++ b/examples/programs/all_programs.xlsx
@@ -1600,10 +1600,10 @@
       <c r="AH2" t="n">
         <v>0.0165</v>
       </c>
-      <c r="AM2" t="b">
-        <v>1</v>
-      </c>
-      <c r="AN2" t="b">
+      <c r="AM2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AN2" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1631,10 +1631,10 @@
       <c r="AH3" t="n">
         <v>0.0165</v>
       </c>
-      <c r="AM3" t="b">
-        <v>1</v>
-      </c>
-      <c r="AN3" t="b">
+      <c r="AM3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AN3" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1662,10 +1662,10 @@
       <c r="AH4" t="n">
         <v>0.0165</v>
       </c>
-      <c r="AM4" t="b">
-        <v>1</v>
-      </c>
-      <c r="AN4" t="b">
+      <c r="AM4" t="n">
+        <v>1</v>
+      </c>
+      <c r="AN4" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1693,10 +1693,10 @@
       <c r="AH5" t="n">
         <v>0.0165</v>
       </c>
-      <c r="AM5" t="b">
-        <v>1</v>
-      </c>
-      <c r="AN5" t="b">
+      <c r="AM5" t="n">
+        <v>1</v>
+      </c>
+      <c r="AN5" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1724,10 +1724,10 @@
       <c r="AH6" t="n">
         <v>0.0165</v>
       </c>
-      <c r="AM6" t="b">
-        <v>1</v>
-      </c>
-      <c r="AN6" t="b">
+      <c r="AM6" t="n">
+        <v>1</v>
+      </c>
+      <c r="AN6" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1755,10 +1755,10 @@
       <c r="AH7" t="n">
         <v>0.05</v>
       </c>
-      <c r="AM7" t="b">
-        <v>1</v>
-      </c>
-      <c r="AN7" t="b">
+      <c r="AM7" t="n">
+        <v>1</v>
+      </c>
+      <c r="AN7" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1786,10 +1786,10 @@
       <c r="AH8" t="n">
         <v>0.05</v>
       </c>
-      <c r="AM8" t="b">
-        <v>1</v>
-      </c>
-      <c r="AN8" t="b">
+      <c r="AM8" t="n">
+        <v>1</v>
+      </c>
+      <c r="AN8" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1817,10 +1817,10 @@
       <c r="AH9" t="n">
         <v>0.05</v>
       </c>
-      <c r="AM9" t="b">
-        <v>1</v>
-      </c>
-      <c r="AN9" t="b">
+      <c r="AM9" t="n">
+        <v>1</v>
+      </c>
+      <c r="AN9" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1848,10 +1848,10 @@
       <c r="AH10" t="n">
         <v>0.05</v>
       </c>
-      <c r="AM10" t="b">
-        <v>1</v>
-      </c>
-      <c r="AN10" t="b">
+      <c r="AM10" t="n">
+        <v>1</v>
+      </c>
+      <c r="AN10" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1879,10 +1879,10 @@
       <c r="AH11" t="n">
         <v>0.05</v>
       </c>
-      <c r="AM11" t="b">
-        <v>1</v>
-      </c>
-      <c r="AN11" t="b">
+      <c r="AM11" t="n">
+        <v>1</v>
+      </c>
+      <c r="AN11" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1910,10 +1910,10 @@
       <c r="AH12" t="n">
         <v>0.05</v>
       </c>
-      <c r="AM12" t="b">
-        <v>1</v>
-      </c>
-      <c r="AN12" t="b">
+      <c r="AM12" t="n">
+        <v>1</v>
+      </c>
+      <c r="AN12" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1941,10 +1941,10 @@
       <c r="AH13" t="n">
         <v>0.05</v>
       </c>
-      <c r="AM13" t="b">
-        <v>1</v>
-      </c>
-      <c r="AN13" t="b">
+      <c r="AM13" t="n">
+        <v>1</v>
+      </c>
+      <c r="AN13" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1972,10 +1972,10 @@
       <c r="AH14" t="n">
         <v>0.05</v>
       </c>
-      <c r="AM14" t="b">
-        <v>1</v>
-      </c>
-      <c r="AN14" t="b">
+      <c r="AM14" t="n">
+        <v>1</v>
+      </c>
+      <c r="AN14" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2003,10 +2003,10 @@
       <c r="AH15" t="n">
         <v>0.05</v>
       </c>
-      <c r="AM15" t="b">
-        <v>1</v>
-      </c>
-      <c r="AN15" t="b">
+      <c r="AM15" t="n">
+        <v>1</v>
+      </c>
+      <c r="AN15" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2034,10 +2034,10 @@
       <c r="AH16" t="n">
         <v>0.05</v>
       </c>
-      <c r="AM16" t="b">
-        <v>1</v>
-      </c>
-      <c r="AN16" t="b">
+      <c r="AM16" t="n">
+        <v>1</v>
+      </c>
+      <c r="AN16" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2065,10 +2065,10 @@
       <c r="AH17" t="n">
         <v>0.05</v>
       </c>
-      <c r="AM17" t="b">
-        <v>1</v>
-      </c>
-      <c r="AN17" t="b">
+      <c r="AM17" t="n">
+        <v>1</v>
+      </c>
+      <c r="AN17" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2096,10 +2096,10 @@
       <c r="AH18" t="n">
         <v>0.05</v>
       </c>
-      <c r="AM18" t="b">
-        <v>1</v>
-      </c>
-      <c r="AN18" t="b">
+      <c r="AM18" t="n">
+        <v>1</v>
+      </c>
+      <c r="AN18" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2127,10 +2127,10 @@
       <c r="AH19" t="n">
         <v>0.05</v>
       </c>
-      <c r="AM19" t="b">
-        <v>1</v>
-      </c>
-      <c r="AN19" t="b">
+      <c r="AM19" t="n">
+        <v>1</v>
+      </c>
+      <c r="AN19" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2158,10 +2158,10 @@
       <c r="AH20" t="n">
         <v>0.05</v>
       </c>
-      <c r="AM20" t="b">
-        <v>1</v>
-      </c>
-      <c r="AN20" t="b">
+      <c r="AM20" t="n">
+        <v>1</v>
+      </c>
+      <c r="AN20" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2189,10 +2189,10 @@
       <c r="AH21" t="n">
         <v>0.05</v>
       </c>
-      <c r="AM21" t="b">
-        <v>1</v>
-      </c>
-      <c r="AN21" t="b">
+      <c r="AM21" t="n">
+        <v>1</v>
+      </c>
+      <c r="AN21" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2220,10 +2220,10 @@
       <c r="AH22" t="n">
         <v>0.05</v>
       </c>
-      <c r="AM22" t="b">
-        <v>1</v>
-      </c>
-      <c r="AN22" t="b">
+      <c r="AM22" t="n">
+        <v>1</v>
+      </c>
+      <c r="AN22" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2251,10 +2251,10 @@
       <c r="AH23" t="n">
         <v>0.05</v>
       </c>
-      <c r="AM23" t="b">
-        <v>1</v>
-      </c>
-      <c r="AN23" t="b">
+      <c r="AM23" t="n">
+        <v>1</v>
+      </c>
+      <c r="AN23" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2282,10 +2282,10 @@
       <c r="AH24" t="n">
         <v>0.05</v>
       </c>
-      <c r="AM24" t="b">
-        <v>1</v>
-      </c>
-      <c r="AN24" t="b">
+      <c r="AM24" t="n">
+        <v>1</v>
+      </c>
+      <c r="AN24" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2313,10 +2313,10 @@
       <c r="AH25" t="n">
         <v>0.05</v>
       </c>
-      <c r="AM25" t="b">
-        <v>1</v>
-      </c>
-      <c r="AN25" t="b">
+      <c r="AM25" t="n">
+        <v>1</v>
+      </c>
+      <c r="AN25" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2344,10 +2344,10 @@
       <c r="AH26" t="n">
         <v>0.05</v>
       </c>
-      <c r="AM26" t="b">
-        <v>1</v>
-      </c>
-      <c r="AN26" t="b">
+      <c r="AM26" t="n">
+        <v>1</v>
+      </c>
+      <c r="AN26" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2375,10 +2375,10 @@
       <c r="AH27" t="n">
         <v>0.05</v>
       </c>
-      <c r="AM27" t="b">
-        <v>1</v>
-      </c>
-      <c r="AN27" t="b">
+      <c r="AM27" t="n">
+        <v>1</v>
+      </c>
+      <c r="AN27" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2406,10 +2406,10 @@
       <c r="AH28" t="n">
         <v>0.05</v>
       </c>
-      <c r="AM28" t="b">
-        <v>1</v>
-      </c>
-      <c r="AN28" t="b">
+      <c r="AM28" t="n">
+        <v>1</v>
+      </c>
+      <c r="AN28" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2437,10 +2437,10 @@
       <c r="AH29" t="n">
         <v>0.05</v>
       </c>
-      <c r="AM29" t="b">
-        <v>1</v>
-      </c>
-      <c r="AN29" t="b">
+      <c r="AM29" t="n">
+        <v>1</v>
+      </c>
+      <c r="AN29" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2468,10 +2468,10 @@
       <c r="AH30" t="n">
         <v>0.05</v>
       </c>
-      <c r="AM30" t="b">
-        <v>1</v>
-      </c>
-      <c r="AN30" t="b">
+      <c r="AM30" t="n">
+        <v>1</v>
+      </c>
+      <c r="AN30" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2499,10 +2499,10 @@
       <c r="AH31" t="n">
         <v>0.05</v>
       </c>
-      <c r="AM31" t="b">
-        <v>1</v>
-      </c>
-      <c r="AN31" t="b">
+      <c r="AM31" t="n">
+        <v>1</v>
+      </c>
+      <c r="AN31" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2530,10 +2530,10 @@
       <c r="AH32" t="n">
         <v>0.05</v>
       </c>
-      <c r="AM32" t="b">
-        <v>1</v>
-      </c>
-      <c r="AN32" t="b">
+      <c r="AM32" t="n">
+        <v>1</v>
+      </c>
+      <c r="AN32" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2561,10 +2561,10 @@
       <c r="AH33" t="n">
         <v>0.05</v>
       </c>
-      <c r="AM33" t="b">
-        <v>1</v>
-      </c>
-      <c r="AN33" t="b">
+      <c r="AM33" t="n">
+        <v>1</v>
+      </c>
+      <c r="AN33" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2592,10 +2592,10 @@
       <c r="AH34" t="n">
         <v>0.05</v>
       </c>
-      <c r="AM34" t="b">
-        <v>1</v>
-      </c>
-      <c r="AN34" t="b">
+      <c r="AM34" t="n">
+        <v>1</v>
+      </c>
+      <c r="AN34" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2623,10 +2623,10 @@
       <c r="AH35" t="n">
         <v>0.05</v>
       </c>
-      <c r="AM35" t="b">
-        <v>1</v>
-      </c>
-      <c r="AN35" t="b">
+      <c r="AM35" t="n">
+        <v>1</v>
+      </c>
+      <c r="AN35" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2654,10 +2654,10 @@
       <c r="AH36" t="n">
         <v>0.05</v>
       </c>
-      <c r="AM36" t="b">
-        <v>1</v>
-      </c>
-      <c r="AN36" t="b">
+      <c r="AM36" t="n">
+        <v>1</v>
+      </c>
+      <c r="AN36" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2680,10 +2680,10 @@
       <c r="AH37" t="n">
         <v>0.0165</v>
       </c>
-      <c r="AM37" t="b">
-        <v>1</v>
-      </c>
-      <c r="AN37" t="b">
+      <c r="AM37" t="n">
+        <v>1</v>
+      </c>
+      <c r="AN37" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2706,10 +2706,10 @@
       <c r="AH38" t="n">
         <v>0.05</v>
       </c>
-      <c r="AM38" t="b">
-        <v>1</v>
-      </c>
-      <c r="AN38" t="b">
+      <c r="AM38" t="n">
+        <v>1</v>
+      </c>
+      <c r="AN38" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2732,10 +2732,10 @@
       <c r="AH39" t="n">
         <v>0.05</v>
       </c>
-      <c r="AM39" t="b">
+      <c r="AM39" t="n">
         <v>0</v>
       </c>
-      <c r="AN39" t="b">
+      <c r="AN39" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2763,10 +2763,10 @@
       <c r="AH40" t="n">
         <v>0.1</v>
       </c>
-      <c r="AM40" t="b">
-        <v>1</v>
-      </c>
-      <c r="AN40" t="b">
+      <c r="AM40" t="n">
+        <v>1</v>
+      </c>
+      <c r="AN40" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2794,10 +2794,10 @@
       <c r="AH41" t="n">
         <v>0.1</v>
       </c>
-      <c r="AM41" t="b">
-        <v>1</v>
-      </c>
-      <c r="AN41" t="b">
+      <c r="AM41" t="n">
+        <v>1</v>
+      </c>
+      <c r="AN41" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2825,10 +2825,10 @@
       <c r="AH42" t="n">
         <v>0.1</v>
       </c>
-      <c r="AM42" t="b">
-        <v>1</v>
-      </c>
-      <c r="AN42" t="b">
+      <c r="AM42" t="n">
+        <v>1</v>
+      </c>
+      <c r="AN42" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2856,10 +2856,10 @@
       <c r="AH43" t="n">
         <v>0.1</v>
       </c>
-      <c r="AM43" t="b">
-        <v>1</v>
-      </c>
-      <c r="AN43" t="b">
+      <c r="AM43" t="n">
+        <v>1</v>
+      </c>
+      <c r="AN43" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2887,10 +2887,10 @@
       <c r="AH44" t="n">
         <v>0.0979</v>
       </c>
-      <c r="AM44" t="b">
-        <v>1</v>
-      </c>
-      <c r="AN44" t="b">
+      <c r="AM44" t="n">
+        <v>1</v>
+      </c>
+      <c r="AN44" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2918,10 +2918,10 @@
       <c r="AH45" t="n">
         <v>0.0979</v>
       </c>
-      <c r="AM45" t="b">
-        <v>1</v>
-      </c>
-      <c r="AN45" t="b">
+      <c r="AM45" t="n">
+        <v>1</v>
+      </c>
+      <c r="AN45" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2944,12 +2944,6 @@
       <c r="AH46" t="n">
         <v>0.1</v>
       </c>
-      <c r="AM46" t="b">
-        <v>1</v>
-      </c>
-      <c r="AN46" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
@@ -2980,12 +2974,6 @@
       <c r="AH47" t="n">
         <v>0.1</v>
       </c>
-      <c r="AM47" t="b">
-        <v>1</v>
-      </c>
-      <c r="AN47" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
@@ -3016,12 +3004,6 @@
       <c r="AH48" t="n">
         <v>0.1</v>
       </c>
-      <c r="AM48" t="b">
-        <v>1</v>
-      </c>
-      <c r="AN48" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
@@ -3052,12 +3034,6 @@
       <c r="AH49" t="n">
         <v>0.1</v>
       </c>
-      <c r="AM49" t="b">
-        <v>1</v>
-      </c>
-      <c r="AN49" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
@@ -3088,12 +3064,6 @@
       <c r="AH50" t="n">
         <v>0.1</v>
       </c>
-      <c r="AM50" t="b">
-        <v>1</v>
-      </c>
-      <c r="AN50" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
@@ -3124,12 +3094,6 @@
       <c r="AH51" t="n">
         <v>0.1</v>
       </c>
-      <c r="AM51" t="b">
-        <v>1</v>
-      </c>
-      <c r="AN51" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
@@ -3160,12 +3124,6 @@
       <c r="AH52" t="n">
         <v>0.1</v>
       </c>
-      <c r="AM52" t="b">
-        <v>1</v>
-      </c>
-      <c r="AN52" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
@@ -3196,12 +3154,6 @@
       <c r="AH53" t="n">
         <v>0.1</v>
       </c>
-      <c r="AM53" t="b">
-        <v>1</v>
-      </c>
-      <c r="AN53" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
@@ -3232,12 +3184,6 @@
       <c r="AH54" t="n">
         <v>0.1</v>
       </c>
-      <c r="AM54" t="b">
-        <v>1</v>
-      </c>
-      <c r="AN54" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
@@ -3268,12 +3214,6 @@
       <c r="AH55" t="n">
         <v>0.1</v>
       </c>
-      <c r="AM55" t="b">
-        <v>1</v>
-      </c>
-      <c r="AN55" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
@@ -3304,12 +3244,6 @@
       <c r="AH56" t="n">
         <v>0.1</v>
       </c>
-      <c r="AM56" t="b">
-        <v>1</v>
-      </c>
-      <c r="AN56" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
@@ -3340,12 +3274,6 @@
       <c r="AH57" t="n">
         <v>0.1</v>
       </c>
-      <c r="AM57" t="b">
-        <v>1</v>
-      </c>
-      <c r="AN57" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
@@ -3376,12 +3304,6 @@
       <c r="AH58" t="n">
         <v>0.1</v>
       </c>
-      <c r="AM58" t="b">
-        <v>1</v>
-      </c>
-      <c r="AN58" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
@@ -3412,12 +3334,6 @@
       <c r="AH59" t="n">
         <v>0.1</v>
       </c>
-      <c r="AM59" t="b">
-        <v>1</v>
-      </c>
-      <c r="AN59" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
@@ -3448,12 +3364,6 @@
       <c r="AH60" t="n">
         <v>0.1</v>
       </c>
-      <c r="AM60" t="b">
-        <v>1</v>
-      </c>
-      <c r="AN60" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
@@ -3484,12 +3394,6 @@
       <c r="AH61" t="n">
         <v>0.1</v>
       </c>
-      <c r="AM61" t="b">
-        <v>1</v>
-      </c>
-      <c r="AN61" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
@@ -3520,12 +3424,6 @@
       <c r="AH62" t="n">
         <v>0.1</v>
       </c>
-      <c r="AM62" t="b">
-        <v>1</v>
-      </c>
-      <c r="AN62" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
@@ -3556,12 +3454,6 @@
       <c r="AH63" t="n">
         <v>0.1</v>
       </c>
-      <c r="AM63" t="b">
-        <v>1</v>
-      </c>
-      <c r="AN63" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
@@ -3592,12 +3484,6 @@
       <c r="AH64" t="n">
         <v>0.1</v>
       </c>
-      <c r="AM64" t="b">
-        <v>1</v>
-      </c>
-      <c r="AN64" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
@@ -3628,12 +3514,6 @@
       <c r="AH65" t="n">
         <v>0.1</v>
       </c>
-      <c r="AM65" t="b">
-        <v>1</v>
-      </c>
-      <c r="AN65" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
@@ -3664,12 +3544,6 @@
       <c r="AH66" t="n">
         <v>0.1</v>
       </c>
-      <c r="AM66" t="b">
-        <v>1</v>
-      </c>
-      <c r="AN66" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
@@ -3700,12 +3574,6 @@
       <c r="AH67" t="n">
         <v>0.1</v>
       </c>
-      <c r="AM67" t="b">
-        <v>1</v>
-      </c>
-      <c r="AN67" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
@@ -3736,12 +3604,6 @@
       <c r="AH68" t="n">
         <v>0.1</v>
       </c>
-      <c r="AM68" t="b">
-        <v>1</v>
-      </c>
-      <c r="AN68" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
@@ -3772,12 +3634,6 @@
       <c r="AH69" t="n">
         <v>0.1</v>
       </c>
-      <c r="AM69" t="b">
-        <v>1</v>
-      </c>
-      <c r="AN69" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
@@ -3808,12 +3664,6 @@
       <c r="AH70" t="n">
         <v>0.1</v>
       </c>
-      <c r="AM70" t="b">
-        <v>1</v>
-      </c>
-      <c r="AN70" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
@@ -3844,12 +3694,6 @@
       <c r="AH71" t="n">
         <v>0.1</v>
       </c>
-      <c r="AM71" t="b">
-        <v>1</v>
-      </c>
-      <c r="AN71" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
@@ -3880,12 +3724,6 @@
       <c r="AH72" t="n">
         <v>0.1</v>
       </c>
-      <c r="AM72" t="b">
-        <v>1</v>
-      </c>
-      <c r="AN72" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
@@ -3916,12 +3754,6 @@
       <c r="AH73" t="n">
         <v>0.1</v>
       </c>
-      <c r="AM73" t="b">
-        <v>1</v>
-      </c>
-      <c r="AN73" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
@@ -3952,12 +3784,6 @@
       <c r="AH74" t="n">
         <v>0.1</v>
       </c>
-      <c r="AM74" t="b">
-        <v>1</v>
-      </c>
-      <c r="AN74" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
@@ -3988,12 +3814,6 @@
       <c r="AH75" t="n">
         <v>0.1</v>
       </c>
-      <c r="AM75" t="b">
-        <v>1</v>
-      </c>
-      <c r="AN75" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
@@ -4024,12 +3844,6 @@
       <c r="AH76" t="n">
         <v>0.1</v>
       </c>
-      <c r="AM76" t="b">
-        <v>1</v>
-      </c>
-      <c r="AN76" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
@@ -4060,12 +3874,6 @@
       <c r="AH77" t="n">
         <v>0.1</v>
       </c>
-      <c r="AM77" t="b">
-        <v>1</v>
-      </c>
-      <c r="AN77" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
@@ -4096,12 +3904,6 @@
       <c r="AH78" t="n">
         <v>0.1</v>
       </c>
-      <c r="AM78" t="b">
-        <v>1</v>
-      </c>
-      <c r="AN78" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
@@ -4132,12 +3934,6 @@
       <c r="AH79" t="n">
         <v>0.1</v>
       </c>
-      <c r="AM79" t="b">
-        <v>1</v>
-      </c>
-      <c r="AN79" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
@@ -4168,12 +3964,6 @@
       <c r="AH80" t="n">
         <v>0.1</v>
       </c>
-      <c r="AM80" t="b">
-        <v>1</v>
-      </c>
-      <c r="AN80" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
@@ -4204,12 +3994,6 @@
       <c r="AH81" t="n">
         <v>0.1</v>
       </c>
-      <c r="AM81" t="b">
-        <v>1</v>
-      </c>
-      <c r="AN81" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
@@ -4240,12 +4024,6 @@
       <c r="AH82" t="n">
         <v>0.1</v>
       </c>
-      <c r="AM82" t="b">
-        <v>1</v>
-      </c>
-      <c r="AN82" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
@@ -4276,12 +4054,6 @@
       <c r="AH83" t="n">
         <v>0.1</v>
       </c>
-      <c r="AM83" t="b">
-        <v>1</v>
-      </c>
-      <c r="AN83" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
@@ -4312,12 +4084,6 @@
       <c r="AH84" t="n">
         <v>0.1</v>
       </c>
-      <c r="AM84" t="b">
-        <v>1</v>
-      </c>
-      <c r="AN84" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
@@ -4348,12 +4114,6 @@
       <c r="AH85" t="n">
         <v>0.1</v>
       </c>
-      <c r="AM85" t="b">
-        <v>1</v>
-      </c>
-      <c r="AN85" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
@@ -4384,12 +4144,6 @@
       <c r="AH86" t="n">
         <v>0.1</v>
       </c>
-      <c r="AM86" t="b">
-        <v>1</v>
-      </c>
-      <c r="AN86" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
@@ -4420,12 +4174,6 @@
       <c r="AH87" t="n">
         <v>0.1</v>
       </c>
-      <c r="AM87" t="b">
-        <v>1</v>
-      </c>
-      <c r="AN87" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
@@ -4451,12 +4199,6 @@
       <c r="AH88" t="n">
         <v>0.1</v>
       </c>
-      <c r="AM88" t="b">
-        <v>1</v>
-      </c>
-      <c r="AN88" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
@@ -4482,12 +4224,6 @@
       <c r="AH89" t="n">
         <v>0.1</v>
       </c>
-      <c r="AM89" t="b">
-        <v>1</v>
-      </c>
-      <c r="AN89" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
@@ -4513,12 +4249,6 @@
       <c r="AH90" t="n">
         <v>0.1</v>
       </c>
-      <c r="AM90" t="b">
-        <v>1</v>
-      </c>
-      <c r="AN90" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
@@ -4544,12 +4274,6 @@
       <c r="AH91" t="n">
         <v>0.1</v>
       </c>
-      <c r="AM91" t="b">
-        <v>1</v>
-      </c>
-      <c r="AN91" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
@@ -4575,12 +4299,6 @@
       <c r="AH92" t="n">
         <v>0.1</v>
       </c>
-      <c r="AM92" t="b">
-        <v>1</v>
-      </c>
-      <c r="AN92" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
@@ -4606,12 +4324,6 @@
       <c r="AH93" t="n">
         <v>0.1</v>
       </c>
-      <c r="AM93" t="b">
-        <v>1</v>
-      </c>
-      <c r="AN93" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="94">
       <c r="A94" t="n">
@@ -4637,12 +4349,6 @@
       <c r="AH94" t="n">
         <v>0.1</v>
       </c>
-      <c r="AM94" t="b">
-        <v>1</v>
-      </c>
-      <c r="AN94" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="95">
       <c r="A95" t="n">
@@ -4668,12 +4374,6 @@
       <c r="AH95" t="n">
         <v>0.1</v>
       </c>
-      <c r="AM95" t="b">
-        <v>1</v>
-      </c>
-      <c r="AN95" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="96">
       <c r="A96" t="n">
@@ -4699,12 +4399,6 @@
       <c r="AH96" t="n">
         <v>0.1</v>
       </c>
-      <c r="AM96" t="b">
-        <v>1</v>
-      </c>
-      <c r="AN96" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="97">
       <c r="A97" t="n">
@@ -4730,12 +4424,6 @@
       <c r="AH97" t="n">
         <v>0.1</v>
       </c>
-      <c r="AM97" t="b">
-        <v>1</v>
-      </c>
-      <c r="AN97" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="98">
       <c r="A98" t="n">
@@ -4751,12 +4439,6 @@
         <v>0.3</v>
       </c>
       <c r="AH98" t="n">
-        <v>1</v>
-      </c>
-      <c r="AM98" t="b">
-        <v>1</v>
-      </c>
-      <c r="AN98" t="b">
         <v>1</v>
       </c>
     </row>

--- a/examples/programs/all_programs.xlsx
+++ b/examples/programs/all_programs.xlsx
@@ -9,7 +9,7 @@
   <sheets>
     <sheet name="program" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="structures" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="sections" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="conditions" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>

--- a/examples/programs/all_programs.xlsx
+++ b/examples/programs/all_programs.xlsx
@@ -427,7 +427,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N7"/>
+  <dimension ref="A1:N8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -644,18 +644,41 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>NEW_LINE_2024_SIMPLIFIED</t>
+        </is>
+      </c>
+      <c r="E7" t="b">
+        <v>1</v>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>casualty</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>Casualty</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>7</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>SINGLE_QUOTA_SHARE_2024</t>
         </is>
       </c>
-      <c r="E7" t="b">
-        <v>1</v>
-      </c>
-      <c r="I7" t="inlineStr">
+      <c r="E8" t="b">
+        <v>1</v>
+      </c>
+      <c r="I8" t="inlineStr">
         <is>
           <t>test</t>
         </is>
       </c>
-      <c r="J7" t="inlineStr">
+      <c r="J8" t="inlineStr">
         <is>
           <t>Test</t>
         </is>
@@ -672,7 +695,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:U19"/>
+  <dimension ref="A1:U22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1298,7 +1321,7 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>quota_share</t>
+          <t>excess_of_loss</t>
         </is>
       </c>
       <c r="E19" t="b">
@@ -1308,6 +1331,84 @@
         <v>6</v>
       </c>
       <c r="I19" t="inlineStr">
+        <is>
+          <t>LAYER_1</t>
+        </is>
+      </c>
+      <c r="R19" t="inlineStr">
+        <is>
+          <t>risk_attaching</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>19</v>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>excess_of_loss</t>
+        </is>
+      </c>
+      <c r="E20" t="b">
+        <v>1</v>
+      </c>
+      <c r="H20" t="n">
+        <v>6</v>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>LAYER_2</t>
+        </is>
+      </c>
+      <c r="R20" t="inlineStr">
+        <is>
+          <t>risk_attaching</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>20</v>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>excess_of_loss</t>
+        </is>
+      </c>
+      <c r="E21" t="b">
+        <v>1</v>
+      </c>
+      <c r="H21" t="n">
+        <v>6</v>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>LAYER_3</t>
+        </is>
+      </c>
+      <c r="R21" t="inlineStr">
+        <is>
+          <t>risk_attaching</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>21</v>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>quota_share</t>
+        </is>
+      </c>
+      <c r="E22" t="b">
+        <v>1</v>
+      </c>
+      <c r="H22" t="n">
+        <v>7</v>
+      </c>
+      <c r="I22" t="inlineStr">
         <is>
           <t>QS_30</t>
         </is>
@@ -1324,7 +1425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AN98"/>
+  <dimension ref="A1:AN118"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1343,7 +1444,7 @@
     <col width="18" customWidth="1" min="9" max="9"/>
     <col width="15" customWidth="1" min="10" max="10"/>
     <col width="14" customWidth="1" min="11" max="11"/>
-    <col width="47" customWidth="1" min="12" max="12"/>
+    <col width="50" customWidth="1" min="12" max="12"/>
     <col width="27" customWidth="1" min="13" max="13"/>
     <col width="27" customWidth="1" min="14" max="14"/>
     <col width="25" customWidth="1" min="15" max="15"/>
@@ -4435,10 +4536,560 @@
       <c r="E98" t="n">
         <v>18</v>
       </c>
-      <c r="W98" t="n">
+      <c r="L98" t="inlineStr">
+        <is>
+          <t>Financial Institutions;Commercial Crime;Professional Indemnity / Errors and Omissions;Commercial Directors and Officers;Medical Malpractice;Transactional Liability</t>
+        </is>
+      </c>
+      <c r="O98" t="inlineStr">
+        <is>
+          <t>GBP</t>
+        </is>
+      </c>
+      <c r="Q98" t="n">
+        <v>3000000</v>
+      </c>
+      <c r="S98" t="n">
+        <v>1000000</v>
+      </c>
+      <c r="AH98" t="n">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="n">
+        <v>98</v>
+      </c>
+      <c r="B99" t="n">
+        <v>6</v>
+      </c>
+      <c r="E99" t="n">
+        <v>18</v>
+      </c>
+      <c r="L99" t="inlineStr">
+        <is>
+          <t>Financial Institutions;Commercial Crime;Professional Indemnity / Errors and Omissions;Commercial Directors and Officers;Medical Malpractice;Transactional Liability</t>
+        </is>
+      </c>
+      <c r="O99" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="Q99" t="n">
+        <v>4500000</v>
+      </c>
+      <c r="S99" t="n">
+        <v>1500000</v>
+      </c>
+      <c r="AH99" t="n">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="n">
+        <v>99</v>
+      </c>
+      <c r="B100" t="n">
+        <v>6</v>
+      </c>
+      <c r="E100" t="n">
+        <v>18</v>
+      </c>
+      <c r="L100" t="inlineStr">
+        <is>
+          <t>Financial Institutions;Commercial Crime;Professional Indemnity / Errors and Omissions;Commercial Directors and Officers;Medical Malpractice;Transactional Liability</t>
+        </is>
+      </c>
+      <c r="O100" t="inlineStr">
+        <is>
+          <t>EUR</t>
+        </is>
+      </c>
+      <c r="Q100" t="n">
+        <v>4500000</v>
+      </c>
+      <c r="S100" t="n">
+        <v>1500000</v>
+      </c>
+      <c r="AH100" t="n">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="n">
+        <v>100</v>
+      </c>
+      <c r="B101" t="n">
+        <v>6</v>
+      </c>
+      <c r="E101" t="n">
+        <v>18</v>
+      </c>
+      <c r="L101" t="inlineStr">
+        <is>
+          <t>Financial Institutions;Commercial Crime;Professional Indemnity / Errors and Omissions;Commercial Directors and Officers;Medical Malpractice;Transactional Liability</t>
+        </is>
+      </c>
+      <c r="O101" t="inlineStr">
+        <is>
+          <t>CAD</t>
+        </is>
+      </c>
+      <c r="Q101" t="n">
+        <v>5250000</v>
+      </c>
+      <c r="S101" t="n">
+        <v>1750000</v>
+      </c>
+      <c r="AH101" t="n">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="n">
+        <v>101</v>
+      </c>
+      <c r="B102" t="n">
+        <v>6</v>
+      </c>
+      <c r="E102" t="n">
+        <v>18</v>
+      </c>
+      <c r="L102" t="inlineStr">
+        <is>
+          <t>Financial Institutions;Commercial Crime;Professional Indemnity / Errors and Omissions;Commercial Directors and Officers;Medical Malpractice;Transactional Liability</t>
+        </is>
+      </c>
+      <c r="O102" t="inlineStr">
+        <is>
+          <t>AUD</t>
+        </is>
+      </c>
+      <c r="Q102" t="n">
+        <v>8000000</v>
+      </c>
+      <c r="S102" t="n">
+        <v>2000000</v>
+      </c>
+      <c r="AH102" t="n">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="n">
+        <v>102</v>
+      </c>
+      <c r="B103" t="n">
+        <v>6</v>
+      </c>
+      <c r="E103" t="n">
+        <v>18</v>
+      </c>
+      <c r="L103" t="inlineStr">
+        <is>
+          <t>Employers' Liability;General Liability</t>
+        </is>
+      </c>
+      <c r="O103" t="inlineStr">
+        <is>
+          <t>GBP</t>
+        </is>
+      </c>
+      <c r="Q103" t="n">
+        <v>2500000</v>
+      </c>
+      <c r="S103" t="n">
+        <v>1500000</v>
+      </c>
+      <c r="AH103" t="n">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="n">
+        <v>103</v>
+      </c>
+      <c r="B104" t="n">
+        <v>6</v>
+      </c>
+      <c r="E104" t="n">
+        <v>18</v>
+      </c>
+      <c r="L104" t="inlineStr">
+        <is>
+          <t>Employers' Liability;General Liability</t>
+        </is>
+      </c>
+      <c r="O104" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="Q104" t="n">
+        <v>3750000</v>
+      </c>
+      <c r="S104" t="n">
+        <v>2250000</v>
+      </c>
+      <c r="AH104" t="n">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="n">
+        <v>104</v>
+      </c>
+      <c r="B105" t="n">
+        <v>6</v>
+      </c>
+      <c r="E105" t="n">
+        <v>18</v>
+      </c>
+      <c r="L105" t="inlineStr">
+        <is>
+          <t>Employers' Liability;General Liability</t>
+        </is>
+      </c>
+      <c r="O105" t="inlineStr">
+        <is>
+          <t>EUR</t>
+        </is>
+      </c>
+      <c r="Q105" t="n">
+        <v>3750000</v>
+      </c>
+      <c r="S105" t="n">
+        <v>2250000</v>
+      </c>
+      <c r="AH105" t="n">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="n">
+        <v>105</v>
+      </c>
+      <c r="B106" t="n">
+        <v>6</v>
+      </c>
+      <c r="E106" t="n">
+        <v>18</v>
+      </c>
+      <c r="L106" t="inlineStr">
+        <is>
+          <t>Employers' Liability;General Liability</t>
+        </is>
+      </c>
+      <c r="O106" t="inlineStr">
+        <is>
+          <t>CAD</t>
+        </is>
+      </c>
+      <c r="Q106" t="n">
+        <v>4375000</v>
+      </c>
+      <c r="S106" t="n">
+        <v>2625000</v>
+      </c>
+      <c r="AH106" t="n">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="n">
+        <v>106</v>
+      </c>
+      <c r="B107" t="n">
+        <v>6</v>
+      </c>
+      <c r="E107" t="n">
+        <v>18</v>
+      </c>
+      <c r="L107" t="inlineStr">
+        <is>
+          <t>Employers' Liability;General Liability</t>
+        </is>
+      </c>
+      <c r="O107" t="inlineStr">
+        <is>
+          <t>AUD</t>
+        </is>
+      </c>
+      <c r="Q107" t="n">
+        <v>7000000</v>
+      </c>
+      <c r="S107" t="n">
+        <v>3000000</v>
+      </c>
+      <c r="AH107" t="n">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="n">
+        <v>107</v>
+      </c>
+      <c r="B108" t="n">
+        <v>6</v>
+      </c>
+      <c r="E108" t="n">
+        <v>19</v>
+      </c>
+      <c r="O108" t="inlineStr">
+        <is>
+          <t>GBP</t>
+        </is>
+      </c>
+      <c r="Q108" t="n">
+        <v>6000000</v>
+      </c>
+      <c r="S108" t="n">
+        <v>4000000</v>
+      </c>
+      <c r="AH108" t="n">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="n">
+        <v>108</v>
+      </c>
+      <c r="B109" t="n">
+        <v>6</v>
+      </c>
+      <c r="E109" t="n">
+        <v>19</v>
+      </c>
+      <c r="O109" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="Q109" t="n">
+        <v>9000000</v>
+      </c>
+      <c r="S109" t="n">
+        <v>6000000</v>
+      </c>
+      <c r="AH109" t="n">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="n">
+        <v>109</v>
+      </c>
+      <c r="B110" t="n">
+        <v>6</v>
+      </c>
+      <c r="E110" t="n">
+        <v>19</v>
+      </c>
+      <c r="O110" t="inlineStr">
+        <is>
+          <t>EUR</t>
+        </is>
+      </c>
+      <c r="Q110" t="n">
+        <v>9000000</v>
+      </c>
+      <c r="S110" t="n">
+        <v>6000000</v>
+      </c>
+      <c r="AH110" t="n">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="n">
+        <v>110</v>
+      </c>
+      <c r="B111" t="n">
+        <v>6</v>
+      </c>
+      <c r="E111" t="n">
+        <v>19</v>
+      </c>
+      <c r="O111" t="inlineStr">
+        <is>
+          <t>CAD</t>
+        </is>
+      </c>
+      <c r="Q111" t="n">
+        <v>10500000</v>
+      </c>
+      <c r="S111" t="n">
+        <v>7000000</v>
+      </c>
+      <c r="AH111" t="n">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="n">
+        <v>111</v>
+      </c>
+      <c r="B112" t="n">
+        <v>6</v>
+      </c>
+      <c r="E112" t="n">
+        <v>19</v>
+      </c>
+      <c r="O112" t="inlineStr">
+        <is>
+          <t>AUD</t>
+        </is>
+      </c>
+      <c r="Q112" t="n">
+        <v>15000000</v>
+      </c>
+      <c r="S112" t="n">
+        <v>10000000</v>
+      </c>
+      <c r="AH112" t="n">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="n">
+        <v>112</v>
+      </c>
+      <c r="B113" t="n">
+        <v>6</v>
+      </c>
+      <c r="E113" t="n">
+        <v>20</v>
+      </c>
+      <c r="O113" t="inlineStr">
+        <is>
+          <t>GBP</t>
+        </is>
+      </c>
+      <c r="Q113" t="n">
+        <v>5000000</v>
+      </c>
+      <c r="S113" t="n">
+        <v>10000000</v>
+      </c>
+      <c r="AH113" t="n">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="n">
+        <v>113</v>
+      </c>
+      <c r="B114" t="n">
+        <v>6</v>
+      </c>
+      <c r="E114" t="n">
+        <v>20</v>
+      </c>
+      <c r="O114" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="Q114" t="n">
+        <v>10000000</v>
+      </c>
+      <c r="S114" t="n">
+        <v>15000000</v>
+      </c>
+      <c r="AH114" t="n">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="n">
+        <v>114</v>
+      </c>
+      <c r="B115" t="n">
+        <v>6</v>
+      </c>
+      <c r="E115" t="n">
+        <v>20</v>
+      </c>
+      <c r="O115" t="inlineStr">
+        <is>
+          <t>EUR</t>
+        </is>
+      </c>
+      <c r="Q115" t="n">
+        <v>10000000</v>
+      </c>
+      <c r="S115" t="n">
+        <v>15000000</v>
+      </c>
+      <c r="AH115" t="n">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="n">
+        <v>115</v>
+      </c>
+      <c r="B116" t="n">
+        <v>6</v>
+      </c>
+      <c r="E116" t="n">
+        <v>20</v>
+      </c>
+      <c r="O116" t="inlineStr">
+        <is>
+          <t>CAD</t>
+        </is>
+      </c>
+      <c r="Q116" t="n">
+        <v>8750000</v>
+      </c>
+      <c r="S116" t="n">
+        <v>17500000</v>
+      </c>
+      <c r="AH116" t="n">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="n">
+        <v>116</v>
+      </c>
+      <c r="B117" t="n">
+        <v>6</v>
+      </c>
+      <c r="E117" t="n">
+        <v>20</v>
+      </c>
+      <c r="O117" t="inlineStr">
+        <is>
+          <t>AUD</t>
+        </is>
+      </c>
+      <c r="Q117" t="n">
+        <v>5000000</v>
+      </c>
+      <c r="S117" t="n">
+        <v>25000000</v>
+      </c>
+      <c r="AH117" t="n">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="n">
+        <v>117</v>
+      </c>
+      <c r="B118" t="n">
+        <v>7</v>
+      </c>
+      <c r="E118" t="n">
+        <v>21</v>
+      </c>
+      <c r="W118" t="n">
         <v>0.3</v>
       </c>
-      <c r="AH98" t="n">
+      <c r="AH118" t="n">
         <v>1</v>
       </c>
     </row>

--- a/examples/programs/all_programs.xlsx
+++ b/examples/programs/all_programs.xlsx
@@ -427,7 +427,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N8"/>
+  <dimension ref="A1:N9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,7 +436,7 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="15" customWidth="1" min="1" max="1"/>
-    <col width="31" customWidth="1" min="2" max="2"/>
+    <col width="34" customWidth="1" min="2" max="2"/>
     <col width="12" customWidth="1" min="3" max="3"/>
     <col width="14" customWidth="1" min="4" max="4"/>
     <col width="19" customWidth="1" min="5" max="5"/>
@@ -667,18 +667,41 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>Quota Share with Exclusions Test</t>
+        </is>
+      </c>
+      <c r="E8" t="b">
+        <v>1</v>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>aviation</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>Aviation</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>8</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
           <t>SINGLE_QUOTA_SHARE_2024</t>
         </is>
       </c>
-      <c r="E8" t="b">
-        <v>1</v>
-      </c>
-      <c r="I8" t="inlineStr">
+      <c r="E9" t="b">
+        <v>1</v>
+      </c>
+      <c r="I9" t="inlineStr">
         <is>
           <t>test</t>
         </is>
       </c>
-      <c r="J8" t="inlineStr">
+      <c r="J9" t="inlineStr">
         <is>
           <t>Test</t>
         </is>
@@ -695,7 +718,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:U22"/>
+  <dimension ref="A1:U23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -711,7 +734,7 @@
     <col width="23" customWidth="1" min="6" max="6"/>
     <col width="20" customWidth="1" min="7" max="7"/>
     <col width="15" customWidth="1" min="8" max="8"/>
-    <col width="16" customWidth="1" min="9" max="9"/>
+    <col width="17" customWidth="1" min="9" max="9"/>
     <col width="17" customWidth="1" min="10" max="10"/>
     <col width="25" customWidth="1" min="11" max="11"/>
     <col width="16" customWidth="1" min="12" max="12"/>
@@ -1405,10 +1428,46 @@
       <c r="E22" t="b">
         <v>1</v>
       </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>2024-01-01</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>2024-12-31</t>
+        </is>
+      </c>
       <c r="H22" t="n">
         <v>7</v>
       </c>
       <c r="I22" t="inlineStr">
+        <is>
+          <t>QS Aviation 25%</t>
+        </is>
+      </c>
+      <c r="R22" t="inlineStr">
+        <is>
+          <t>risk_attaching</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>22</v>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>quota_share</t>
+        </is>
+      </c>
+      <c r="E23" t="b">
+        <v>1</v>
+      </c>
+      <c r="H23" t="n">
+        <v>8</v>
+      </c>
+      <c r="I23" t="inlineStr">
         <is>
           <t>QS_30</t>
         </is>
@@ -1425,7 +1484,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AN118"/>
+  <dimension ref="A1:AN91"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3088,7 +3147,7 @@
       </c>
       <c r="L48" t="inlineStr">
         <is>
-          <t>Financial Institutions</t>
+          <t>Financial Institutions;Commercial Crime;Professional Indemnity / Errors and Omissions;Commercial Directors and Officers;Medical Malpractice;Transactional Liability</t>
         </is>
       </c>
       <c r="O48" t="inlineStr">
@@ -3118,19 +3177,19 @@
       </c>
       <c r="L49" t="inlineStr">
         <is>
-          <t>Commercial Crime</t>
+          <t>Financial Institutions;Commercial Crime;Professional Indemnity / Errors and Omissions;Commercial Directors and Officers;Medical Malpractice;Transactional Liability</t>
         </is>
       </c>
       <c r="O49" t="inlineStr">
         <is>
-          <t>GBP</t>
+          <t>USD</t>
         </is>
       </c>
       <c r="Q49" t="n">
-        <v>3000000</v>
+        <v>4500000</v>
       </c>
       <c r="S49" t="n">
-        <v>1000000</v>
+        <v>1500000</v>
       </c>
       <c r="AH49" t="n">
         <v>0.1</v>
@@ -3148,19 +3207,19 @@
       </c>
       <c r="L50" t="inlineStr">
         <is>
-          <t>Professional Indemnity / Errors and Omissions</t>
+          <t>Financial Institutions;Commercial Crime;Professional Indemnity / Errors and Omissions;Commercial Directors and Officers;Medical Malpractice;Transactional Liability</t>
         </is>
       </c>
       <c r="O50" t="inlineStr">
         <is>
-          <t>GBP</t>
+          <t>EUR</t>
         </is>
       </c>
       <c r="Q50" t="n">
-        <v>3000000</v>
+        <v>4500000</v>
       </c>
       <c r="S50" t="n">
-        <v>1000000</v>
+        <v>1500000</v>
       </c>
       <c r="AH50" t="n">
         <v>0.1</v>
@@ -3178,19 +3237,19 @@
       </c>
       <c r="L51" t="inlineStr">
         <is>
-          <t>Commercial Directors and Officers</t>
+          <t>Financial Institutions;Commercial Crime;Professional Indemnity / Errors and Omissions;Commercial Directors and Officers;Medical Malpractice;Transactional Liability</t>
         </is>
       </c>
       <c r="O51" t="inlineStr">
         <is>
-          <t>GBP</t>
+          <t>CAD</t>
         </is>
       </c>
       <c r="Q51" t="n">
-        <v>3000000</v>
+        <v>5250000</v>
       </c>
       <c r="S51" t="n">
-        <v>1000000</v>
+        <v>1750000</v>
       </c>
       <c r="AH51" t="n">
         <v>0.1</v>
@@ -3208,19 +3267,19 @@
       </c>
       <c r="L52" t="inlineStr">
         <is>
-          <t>Medical Malpractice</t>
+          <t>Financial Institutions;Commercial Crime;Professional Indemnity / Errors and Omissions;Commercial Directors and Officers;Medical Malpractice;Transactional Liability</t>
         </is>
       </c>
       <c r="O52" t="inlineStr">
         <is>
-          <t>GBP</t>
+          <t>AUD</t>
         </is>
       </c>
       <c r="Q52" t="n">
-        <v>3000000</v>
+        <v>8000000</v>
       </c>
       <c r="S52" t="n">
-        <v>1000000</v>
+        <v>2000000</v>
       </c>
       <c r="AH52" t="n">
         <v>0.1</v>
@@ -3238,7 +3297,7 @@
       </c>
       <c r="L53" t="inlineStr">
         <is>
-          <t>Transactional Liability</t>
+          <t>Employers' Liability;General Liability</t>
         </is>
       </c>
       <c r="O53" t="inlineStr">
@@ -3247,10 +3306,10 @@
         </is>
       </c>
       <c r="Q53" t="n">
-        <v>3000000</v>
+        <v>2500000</v>
       </c>
       <c r="S53" t="n">
-        <v>1000000</v>
+        <v>1500000</v>
       </c>
       <c r="AH53" t="n">
         <v>0.1</v>
@@ -3268,7 +3327,7 @@
       </c>
       <c r="L54" t="inlineStr">
         <is>
-          <t>Financial Institutions</t>
+          <t>Employers' Liability;General Liability</t>
         </is>
       </c>
       <c r="O54" t="inlineStr">
@@ -3277,10 +3336,10 @@
         </is>
       </c>
       <c r="Q54" t="n">
-        <v>4500000</v>
+        <v>3750000</v>
       </c>
       <c r="S54" t="n">
-        <v>1500000</v>
+        <v>2250000</v>
       </c>
       <c r="AH54" t="n">
         <v>0.1</v>
@@ -3298,19 +3357,19 @@
       </c>
       <c r="L55" t="inlineStr">
         <is>
-          <t>Commercial Crime</t>
+          <t>Employers' Liability;General Liability</t>
         </is>
       </c>
       <c r="O55" t="inlineStr">
         <is>
-          <t>USD</t>
+          <t>EUR</t>
         </is>
       </c>
       <c r="Q55" t="n">
-        <v>4500000</v>
+        <v>3750000</v>
       </c>
       <c r="S55" t="n">
-        <v>1500000</v>
+        <v>2250000</v>
       </c>
       <c r="AH55" t="n">
         <v>0.1</v>
@@ -3328,19 +3387,19 @@
       </c>
       <c r="L56" t="inlineStr">
         <is>
-          <t>Professional Indemnity / Errors and Omissions</t>
+          <t>Employers' Liability;General Liability</t>
         </is>
       </c>
       <c r="O56" t="inlineStr">
         <is>
-          <t>USD</t>
+          <t>CAD</t>
         </is>
       </c>
       <c r="Q56" t="n">
-        <v>4500000</v>
+        <v>4375000</v>
       </c>
       <c r="S56" t="n">
-        <v>1500000</v>
+        <v>2625000</v>
       </c>
       <c r="AH56" t="n">
         <v>0.1</v>
@@ -3358,19 +3417,19 @@
       </c>
       <c r="L57" t="inlineStr">
         <is>
-          <t>Commercial Directors and Officers</t>
+          <t>Employers' Liability;General Liability</t>
         </is>
       </c>
       <c r="O57" t="inlineStr">
         <is>
-          <t>USD</t>
+          <t>AUD</t>
         </is>
       </c>
       <c r="Q57" t="n">
-        <v>4500000</v>
+        <v>7000000</v>
       </c>
       <c r="S57" t="n">
-        <v>1500000</v>
+        <v>3000000</v>
       </c>
       <c r="AH57" t="n">
         <v>0.1</v>
@@ -3384,23 +3443,18 @@
         <v>5</v>
       </c>
       <c r="E58" t="n">
-        <v>15</v>
-      </c>
-      <c r="L58" t="inlineStr">
-        <is>
-          <t>Medical Malpractice</t>
-        </is>
+        <v>16</v>
       </c>
       <c r="O58" t="inlineStr">
         <is>
-          <t>USD</t>
+          <t>GBP</t>
         </is>
       </c>
       <c r="Q58" t="n">
-        <v>4500000</v>
+        <v>6000000</v>
       </c>
       <c r="S58" t="n">
-        <v>1500000</v>
+        <v>4000000</v>
       </c>
       <c r="AH58" t="n">
         <v>0.1</v>
@@ -3414,12 +3468,7 @@
         <v>5</v>
       </c>
       <c r="E59" t="n">
-        <v>15</v>
-      </c>
-      <c r="L59" t="inlineStr">
-        <is>
-          <t>Transactional Liability</t>
-        </is>
+        <v>16</v>
       </c>
       <c r="O59" t="inlineStr">
         <is>
@@ -3427,10 +3476,10 @@
         </is>
       </c>
       <c r="Q59" t="n">
-        <v>4500000</v>
+        <v>9000000</v>
       </c>
       <c r="S59" t="n">
-        <v>1500000</v>
+        <v>6000000</v>
       </c>
       <c r="AH59" t="n">
         <v>0.1</v>
@@ -3444,12 +3493,7 @@
         <v>5</v>
       </c>
       <c r="E60" t="n">
-        <v>15</v>
-      </c>
-      <c r="L60" t="inlineStr">
-        <is>
-          <t>Financial Institutions</t>
-        </is>
+        <v>16</v>
       </c>
       <c r="O60" t="inlineStr">
         <is>
@@ -3457,10 +3501,10 @@
         </is>
       </c>
       <c r="Q60" t="n">
-        <v>4500000</v>
+        <v>9000000</v>
       </c>
       <c r="S60" t="n">
-        <v>1500000</v>
+        <v>6000000</v>
       </c>
       <c r="AH60" t="n">
         <v>0.1</v>
@@ -3474,23 +3518,18 @@
         <v>5</v>
       </c>
       <c r="E61" t="n">
-        <v>15</v>
-      </c>
-      <c r="L61" t="inlineStr">
-        <is>
-          <t>Commercial Crime</t>
-        </is>
+        <v>16</v>
       </c>
       <c r="O61" t="inlineStr">
         <is>
-          <t>EUR</t>
+          <t>CAD</t>
         </is>
       </c>
       <c r="Q61" t="n">
-        <v>4500000</v>
+        <v>10500000</v>
       </c>
       <c r="S61" t="n">
-        <v>1500000</v>
+        <v>7000000</v>
       </c>
       <c r="AH61" t="n">
         <v>0.1</v>
@@ -3504,23 +3543,18 @@
         <v>5</v>
       </c>
       <c r="E62" t="n">
-        <v>15</v>
-      </c>
-      <c r="L62" t="inlineStr">
-        <is>
-          <t>Professional Indemnity / Errors and Omissions</t>
-        </is>
+        <v>16</v>
       </c>
       <c r="O62" t="inlineStr">
         <is>
-          <t>EUR</t>
+          <t>AUD</t>
         </is>
       </c>
       <c r="Q62" t="n">
-        <v>4500000</v>
+        <v>15000000</v>
       </c>
       <c r="S62" t="n">
-        <v>1500000</v>
+        <v>10000000</v>
       </c>
       <c r="AH62" t="n">
         <v>0.1</v>
@@ -3534,23 +3568,18 @@
         <v>5</v>
       </c>
       <c r="E63" t="n">
-        <v>15</v>
-      </c>
-      <c r="L63" t="inlineStr">
-        <is>
-          <t>Commercial Directors and Officers</t>
-        </is>
+        <v>17</v>
       </c>
       <c r="O63" t="inlineStr">
         <is>
-          <t>EUR</t>
+          <t>GBP</t>
         </is>
       </c>
       <c r="Q63" t="n">
-        <v>4500000</v>
+        <v>5000000</v>
       </c>
       <c r="S63" t="n">
-        <v>1500000</v>
+        <v>10000000</v>
       </c>
       <c r="AH63" t="n">
         <v>0.1</v>
@@ -3564,23 +3593,18 @@
         <v>5</v>
       </c>
       <c r="E64" t="n">
-        <v>15</v>
-      </c>
-      <c r="L64" t="inlineStr">
-        <is>
-          <t>Medical Malpractice</t>
-        </is>
+        <v>17</v>
       </c>
       <c r="O64" t="inlineStr">
         <is>
-          <t>EUR</t>
+          <t>USD</t>
         </is>
       </c>
       <c r="Q64" t="n">
-        <v>4500000</v>
+        <v>10000000</v>
       </c>
       <c r="S64" t="n">
-        <v>1500000</v>
+        <v>15000000</v>
       </c>
       <c r="AH64" t="n">
         <v>0.1</v>
@@ -3594,12 +3618,7 @@
         <v>5</v>
       </c>
       <c r="E65" t="n">
-        <v>15</v>
-      </c>
-      <c r="L65" t="inlineStr">
-        <is>
-          <t>Transactional Liability</t>
-        </is>
+        <v>17</v>
       </c>
       <c r="O65" t="inlineStr">
         <is>
@@ -3607,10 +3626,10 @@
         </is>
       </c>
       <c r="Q65" t="n">
-        <v>4500000</v>
+        <v>10000000</v>
       </c>
       <c r="S65" t="n">
-        <v>1500000</v>
+        <v>15000000</v>
       </c>
       <c r="AH65" t="n">
         <v>0.1</v>
@@ -3624,12 +3643,7 @@
         <v>5</v>
       </c>
       <c r="E66" t="n">
-        <v>15</v>
-      </c>
-      <c r="L66" t="inlineStr">
-        <is>
-          <t>Financial Institutions</t>
-        </is>
+        <v>17</v>
       </c>
       <c r="O66" t="inlineStr">
         <is>
@@ -3637,10 +3651,10 @@
         </is>
       </c>
       <c r="Q66" t="n">
-        <v>5250000</v>
+        <v>8750000</v>
       </c>
       <c r="S66" t="n">
-        <v>1750000</v>
+        <v>17500000</v>
       </c>
       <c r="AH66" t="n">
         <v>0.1</v>
@@ -3654,23 +3668,18 @@
         <v>5</v>
       </c>
       <c r="E67" t="n">
-        <v>15</v>
-      </c>
-      <c r="L67" t="inlineStr">
-        <is>
-          <t>Commercial Crime</t>
-        </is>
+        <v>17</v>
       </c>
       <c r="O67" t="inlineStr">
         <is>
-          <t>CAD</t>
+          <t>AUD</t>
         </is>
       </c>
       <c r="Q67" t="n">
-        <v>5250000</v>
+        <v>5000000</v>
       </c>
       <c r="S67" t="n">
-        <v>1750000</v>
+        <v>25000000</v>
       </c>
       <c r="AH67" t="n">
         <v>0.1</v>
@@ -3681,26 +3690,26 @@
         <v>67</v>
       </c>
       <c r="B68" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E68" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="L68" t="inlineStr">
         <is>
-          <t>Professional Indemnity / Errors and Omissions</t>
+          <t>Financial Institutions;Commercial Crime;Professional Indemnity / Errors and Omissions;Commercial Directors and Officers;Medical Malpractice;Transactional Liability</t>
         </is>
       </c>
       <c r="O68" t="inlineStr">
         <is>
-          <t>CAD</t>
+          <t>GBP</t>
         </is>
       </c>
       <c r="Q68" t="n">
-        <v>5250000</v>
+        <v>3000000</v>
       </c>
       <c r="S68" t="n">
-        <v>1750000</v>
+        <v>1000000</v>
       </c>
       <c r="AH68" t="n">
         <v>0.1</v>
@@ -3711,26 +3720,26 @@
         <v>68</v>
       </c>
       <c r="B69" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E69" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="L69" t="inlineStr">
         <is>
-          <t>Commercial Directors and Officers</t>
+          <t>Financial Institutions;Commercial Crime;Professional Indemnity / Errors and Omissions;Commercial Directors and Officers;Medical Malpractice;Transactional Liability</t>
         </is>
       </c>
       <c r="O69" t="inlineStr">
         <is>
-          <t>CAD</t>
+          <t>USD</t>
         </is>
       </c>
       <c r="Q69" t="n">
-        <v>5250000</v>
+        <v>4500000</v>
       </c>
       <c r="S69" t="n">
-        <v>1750000</v>
+        <v>1500000</v>
       </c>
       <c r="AH69" t="n">
         <v>0.1</v>
@@ -3741,26 +3750,26 @@
         <v>69</v>
       </c>
       <c r="B70" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E70" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="L70" t="inlineStr">
         <is>
-          <t>Medical Malpractice</t>
+          <t>Financial Institutions;Commercial Crime;Professional Indemnity / Errors and Omissions;Commercial Directors and Officers;Medical Malpractice;Transactional Liability</t>
         </is>
       </c>
       <c r="O70" t="inlineStr">
         <is>
-          <t>CAD</t>
+          <t>EUR</t>
         </is>
       </c>
       <c r="Q70" t="n">
-        <v>5250000</v>
+        <v>4500000</v>
       </c>
       <c r="S70" t="n">
-        <v>1750000</v>
+        <v>1500000</v>
       </c>
       <c r="AH70" t="n">
         <v>0.1</v>
@@ -3771,14 +3780,14 @@
         <v>70</v>
       </c>
       <c r="B71" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E71" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="L71" t="inlineStr">
         <is>
-          <t>Transactional Liability</t>
+          <t>Financial Institutions;Commercial Crime;Professional Indemnity / Errors and Omissions;Commercial Directors and Officers;Medical Malpractice;Transactional Liability</t>
         </is>
       </c>
       <c r="O71" t="inlineStr">
@@ -3801,14 +3810,14 @@
         <v>71</v>
       </c>
       <c r="B72" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E72" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="L72" t="inlineStr">
         <is>
-          <t>Financial Institutions</t>
+          <t>Financial Institutions;Commercial Crime;Professional Indemnity / Errors and Omissions;Commercial Directors and Officers;Medical Malpractice;Transactional Liability</t>
         </is>
       </c>
       <c r="O72" t="inlineStr">
@@ -3831,26 +3840,26 @@
         <v>72</v>
       </c>
       <c r="B73" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E73" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="L73" t="inlineStr">
         <is>
-          <t>Commercial Crime</t>
+          <t>Employers' Liability;General Liability</t>
         </is>
       </c>
       <c r="O73" t="inlineStr">
         <is>
-          <t>AUD</t>
+          <t>GBP</t>
         </is>
       </c>
       <c r="Q73" t="n">
-        <v>8000000</v>
+        <v>2500000</v>
       </c>
       <c r="S73" t="n">
-        <v>2000000</v>
+        <v>1500000</v>
       </c>
       <c r="AH73" t="n">
         <v>0.1</v>
@@ -3861,26 +3870,26 @@
         <v>73</v>
       </c>
       <c r="B74" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E74" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="L74" t="inlineStr">
         <is>
-          <t>Professional Indemnity / Errors and Omissions</t>
+          <t>Employers' Liability;General Liability</t>
         </is>
       </c>
       <c r="O74" t="inlineStr">
         <is>
-          <t>AUD</t>
+          <t>USD</t>
         </is>
       </c>
       <c r="Q74" t="n">
-        <v>8000000</v>
+        <v>3750000</v>
       </c>
       <c r="S74" t="n">
-        <v>2000000</v>
+        <v>2250000</v>
       </c>
       <c r="AH74" t="n">
         <v>0.1</v>
@@ -3891,26 +3900,26 @@
         <v>74</v>
       </c>
       <c r="B75" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E75" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="L75" t="inlineStr">
         <is>
-          <t>Commercial Directors and Officers</t>
+          <t>Employers' Liability;General Liability</t>
         </is>
       </c>
       <c r="O75" t="inlineStr">
         <is>
-          <t>AUD</t>
+          <t>EUR</t>
         </is>
       </c>
       <c r="Q75" t="n">
-        <v>8000000</v>
+        <v>3750000</v>
       </c>
       <c r="S75" t="n">
-        <v>2000000</v>
+        <v>2250000</v>
       </c>
       <c r="AH75" t="n">
         <v>0.1</v>
@@ -3921,26 +3930,26 @@
         <v>75</v>
       </c>
       <c r="B76" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E76" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="L76" t="inlineStr">
         <is>
-          <t>Medical Malpractice</t>
+          <t>Employers' Liability;General Liability</t>
         </is>
       </c>
       <c r="O76" t="inlineStr">
         <is>
-          <t>AUD</t>
+          <t>CAD</t>
         </is>
       </c>
       <c r="Q76" t="n">
-        <v>8000000</v>
+        <v>4375000</v>
       </c>
       <c r="S76" t="n">
-        <v>2000000</v>
+        <v>2625000</v>
       </c>
       <c r="AH76" t="n">
         <v>0.1</v>
@@ -3951,14 +3960,14 @@
         <v>76</v>
       </c>
       <c r="B77" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E77" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="L77" t="inlineStr">
         <is>
-          <t>Transactional Liability</t>
+          <t>Employers' Liability;General Liability</t>
         </is>
       </c>
       <c r="O77" t="inlineStr">
@@ -3967,10 +3976,10 @@
         </is>
       </c>
       <c r="Q77" t="n">
-        <v>8000000</v>
+        <v>7000000</v>
       </c>
       <c r="S77" t="n">
-        <v>2000000</v>
+        <v>3000000</v>
       </c>
       <c r="AH77" t="n">
         <v>0.1</v>
@@ -3981,15 +3990,10 @@
         <v>77</v>
       </c>
       <c r="B78" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E78" t="n">
-        <v>15</v>
-      </c>
-      <c r="L78" t="inlineStr">
-        <is>
-          <t>Employers' Liability</t>
-        </is>
+        <v>19</v>
       </c>
       <c r="O78" t="inlineStr">
         <is>
@@ -3997,10 +4001,10 @@
         </is>
       </c>
       <c r="Q78" t="n">
-        <v>2500000</v>
+        <v>6000000</v>
       </c>
       <c r="S78" t="n">
-        <v>1500000</v>
+        <v>4000000</v>
       </c>
       <c r="AH78" t="n">
         <v>0.1</v>
@@ -4011,26 +4015,21 @@
         <v>78</v>
       </c>
       <c r="B79" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E79" t="n">
-        <v>15</v>
-      </c>
-      <c r="L79" t="inlineStr">
-        <is>
-          <t>General Liability</t>
-        </is>
+        <v>19</v>
       </c>
       <c r="O79" t="inlineStr">
         <is>
-          <t>GBP</t>
+          <t>USD</t>
         </is>
       </c>
       <c r="Q79" t="n">
-        <v>2500000</v>
+        <v>9000000</v>
       </c>
       <c r="S79" t="n">
-        <v>1500000</v>
+        <v>6000000</v>
       </c>
       <c r="AH79" t="n">
         <v>0.1</v>
@@ -4041,26 +4040,21 @@
         <v>79</v>
       </c>
       <c r="B80" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E80" t="n">
-        <v>15</v>
-      </c>
-      <c r="L80" t="inlineStr">
-        <is>
-          <t>Employers' Liability</t>
-        </is>
+        <v>19</v>
       </c>
       <c r="O80" t="inlineStr">
         <is>
-          <t>USD</t>
+          <t>EUR</t>
         </is>
       </c>
       <c r="Q80" t="n">
-        <v>3750000</v>
+        <v>9000000</v>
       </c>
       <c r="S80" t="n">
-        <v>2250000</v>
+        <v>6000000</v>
       </c>
       <c r="AH80" t="n">
         <v>0.1</v>
@@ -4071,26 +4065,21 @@
         <v>80</v>
       </c>
       <c r="B81" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E81" t="n">
-        <v>15</v>
-      </c>
-      <c r="L81" t="inlineStr">
-        <is>
-          <t>General Liability</t>
-        </is>
+        <v>19</v>
       </c>
       <c r="O81" t="inlineStr">
         <is>
-          <t>USD</t>
+          <t>CAD</t>
         </is>
       </c>
       <c r="Q81" t="n">
-        <v>3750000</v>
+        <v>10500000</v>
       </c>
       <c r="S81" t="n">
-        <v>2250000</v>
+        <v>7000000</v>
       </c>
       <c r="AH81" t="n">
         <v>0.1</v>
@@ -4101,26 +4090,21 @@
         <v>81</v>
       </c>
       <c r="B82" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E82" t="n">
-        <v>15</v>
-      </c>
-      <c r="L82" t="inlineStr">
-        <is>
-          <t>Employers' Liability</t>
-        </is>
+        <v>19</v>
       </c>
       <c r="O82" t="inlineStr">
         <is>
-          <t>EUR</t>
+          <t>AUD</t>
         </is>
       </c>
       <c r="Q82" t="n">
-        <v>3750000</v>
+        <v>15000000</v>
       </c>
       <c r="S82" t="n">
-        <v>2250000</v>
+        <v>10000000</v>
       </c>
       <c r="AH82" t="n">
         <v>0.1</v>
@@ -4131,26 +4115,21 @@
         <v>82</v>
       </c>
       <c r="B83" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E83" t="n">
-        <v>15</v>
-      </c>
-      <c r="L83" t="inlineStr">
-        <is>
-          <t>General Liability</t>
-        </is>
+        <v>20</v>
       </c>
       <c r="O83" t="inlineStr">
         <is>
-          <t>EUR</t>
+          <t>GBP</t>
         </is>
       </c>
       <c r="Q83" t="n">
-        <v>3750000</v>
+        <v>5000000</v>
       </c>
       <c r="S83" t="n">
-        <v>2250000</v>
+        <v>10000000</v>
       </c>
       <c r="AH83" t="n">
         <v>0.1</v>
@@ -4161,26 +4140,21 @@
         <v>83</v>
       </c>
       <c r="B84" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E84" t="n">
-        <v>15</v>
-      </c>
-      <c r="L84" t="inlineStr">
-        <is>
-          <t>Employers' Liability</t>
-        </is>
+        <v>20</v>
       </c>
       <c r="O84" t="inlineStr">
         <is>
-          <t>CAD</t>
+          <t>USD</t>
         </is>
       </c>
       <c r="Q84" t="n">
-        <v>4375000</v>
+        <v>10000000</v>
       </c>
       <c r="S84" t="n">
-        <v>2625000</v>
+        <v>15000000</v>
       </c>
       <c r="AH84" t="n">
         <v>0.1</v>
@@ -4191,26 +4165,21 @@
         <v>84</v>
       </c>
       <c r="B85" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E85" t="n">
-        <v>15</v>
-      </c>
-      <c r="L85" t="inlineStr">
-        <is>
-          <t>General Liability</t>
-        </is>
+        <v>20</v>
       </c>
       <c r="O85" t="inlineStr">
         <is>
-          <t>CAD</t>
+          <t>EUR</t>
         </is>
       </c>
       <c r="Q85" t="n">
-        <v>4375000</v>
+        <v>10000000</v>
       </c>
       <c r="S85" t="n">
-        <v>2625000</v>
+        <v>15000000</v>
       </c>
       <c r="AH85" t="n">
         <v>0.1</v>
@@ -4221,26 +4190,21 @@
         <v>85</v>
       </c>
       <c r="B86" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E86" t="n">
-        <v>15</v>
-      </c>
-      <c r="L86" t="inlineStr">
-        <is>
-          <t>Employers' Liability</t>
-        </is>
+        <v>20</v>
       </c>
       <c r="O86" t="inlineStr">
         <is>
-          <t>AUD</t>
+          <t>CAD</t>
         </is>
       </c>
       <c r="Q86" t="n">
-        <v>7000000</v>
+        <v>8750000</v>
       </c>
       <c r="S86" t="n">
-        <v>3000000</v>
+        <v>17500000</v>
       </c>
       <c r="AH86" t="n">
         <v>0.1</v>
@@ -4251,15 +4215,10 @@
         <v>86</v>
       </c>
       <c r="B87" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E87" t="n">
-        <v>15</v>
-      </c>
-      <c r="L87" t="inlineStr">
-        <is>
-          <t>General Liability</t>
-        </is>
+        <v>20</v>
       </c>
       <c r="O87" t="inlineStr">
         <is>
@@ -4267,10 +4226,10 @@
         </is>
       </c>
       <c r="Q87" t="n">
-        <v>7000000</v>
+        <v>5000000</v>
       </c>
       <c r="S87" t="n">
-        <v>3000000</v>
+        <v>25000000</v>
       </c>
       <c r="AH87" t="n">
         <v>0.1</v>
@@ -4281,24 +4240,23 @@
         <v>87</v>
       </c>
       <c r="B88" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E88" t="n">
-        <v>16</v>
-      </c>
-      <c r="O88" t="inlineStr">
-        <is>
-          <t>GBP</t>
-        </is>
-      </c>
-      <c r="Q88" t="n">
-        <v>6000000</v>
-      </c>
-      <c r="S88" t="n">
-        <v>4000000</v>
+        <v>21</v>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>exclude</t>
+        </is>
+      </c>
+      <c r="I88" t="inlineStr">
+        <is>
+          <t>Iran</t>
+        </is>
       </c>
       <c r="AH88" t="n">
-        <v>0.1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="89">
@@ -4306,24 +4264,23 @@
         <v>88</v>
       </c>
       <c r="B89" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E89" t="n">
-        <v>16</v>
-      </c>
-      <c r="O89" t="inlineStr">
-        <is>
-          <t>USD</t>
-        </is>
-      </c>
-      <c r="Q89" t="n">
-        <v>9000000</v>
-      </c>
-      <c r="S89" t="n">
-        <v>6000000</v>
+        <v>21</v>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>exclude</t>
+        </is>
+      </c>
+      <c r="I89" t="inlineStr">
+        <is>
+          <t>Russia</t>
+        </is>
       </c>
       <c r="AH89" t="n">
-        <v>0.1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="90">
@@ -4331,24 +4288,16 @@
         <v>89</v>
       </c>
       <c r="B90" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E90" t="n">
-        <v>16</v>
-      </c>
-      <c r="O90" t="inlineStr">
-        <is>
-          <t>EUR</t>
-        </is>
-      </c>
-      <c r="Q90" t="n">
-        <v>9000000</v>
-      </c>
-      <c r="S90" t="n">
-        <v>6000000</v>
+        <v>21</v>
+      </c>
+      <c r="W90" t="n">
+        <v>0.25</v>
       </c>
       <c r="AH90" t="n">
-        <v>0.1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="91">
@@ -4356,740 +4305,15 @@
         <v>90</v>
       </c>
       <c r="B91" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="E91" t="n">
-        <v>16</v>
-      </c>
-      <c r="O91" t="inlineStr">
-        <is>
-          <t>CAD</t>
-        </is>
-      </c>
-      <c r="Q91" t="n">
-        <v>10500000</v>
-      </c>
-      <c r="S91" t="n">
-        <v>7000000</v>
+        <v>22</v>
+      </c>
+      <c r="W91" t="n">
+        <v>0.3</v>
       </c>
       <c r="AH91" t="n">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="92">
-      <c r="A92" t="n">
-        <v>91</v>
-      </c>
-      <c r="B92" t="n">
-        <v>5</v>
-      </c>
-      <c r="E92" t="n">
-        <v>16</v>
-      </c>
-      <c r="O92" t="inlineStr">
-        <is>
-          <t>AUD</t>
-        </is>
-      </c>
-      <c r="Q92" t="n">
-        <v>15000000</v>
-      </c>
-      <c r="S92" t="n">
-        <v>10000000</v>
-      </c>
-      <c r="AH92" t="n">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="93">
-      <c r="A93" t="n">
-        <v>92</v>
-      </c>
-      <c r="B93" t="n">
-        <v>5</v>
-      </c>
-      <c r="E93" t="n">
-        <v>17</v>
-      </c>
-      <c r="O93" t="inlineStr">
-        <is>
-          <t>GBP</t>
-        </is>
-      </c>
-      <c r="Q93" t="n">
-        <v>5000000</v>
-      </c>
-      <c r="S93" t="n">
-        <v>10000000</v>
-      </c>
-      <c r="AH93" t="n">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="94">
-      <c r="A94" t="n">
-        <v>93</v>
-      </c>
-      <c r="B94" t="n">
-        <v>5</v>
-      </c>
-      <c r="E94" t="n">
-        <v>17</v>
-      </c>
-      <c r="O94" t="inlineStr">
-        <is>
-          <t>USD</t>
-        </is>
-      </c>
-      <c r="Q94" t="n">
-        <v>10000000</v>
-      </c>
-      <c r="S94" t="n">
-        <v>15000000</v>
-      </c>
-      <c r="AH94" t="n">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="95">
-      <c r="A95" t="n">
-        <v>94</v>
-      </c>
-      <c r="B95" t="n">
-        <v>5</v>
-      </c>
-      <c r="E95" t="n">
-        <v>17</v>
-      </c>
-      <c r="O95" t="inlineStr">
-        <is>
-          <t>EUR</t>
-        </is>
-      </c>
-      <c r="Q95" t="n">
-        <v>10000000</v>
-      </c>
-      <c r="S95" t="n">
-        <v>15000000</v>
-      </c>
-      <c r="AH95" t="n">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="96">
-      <c r="A96" t="n">
-        <v>95</v>
-      </c>
-      <c r="B96" t="n">
-        <v>5</v>
-      </c>
-      <c r="E96" t="n">
-        <v>17</v>
-      </c>
-      <c r="O96" t="inlineStr">
-        <is>
-          <t>CAD</t>
-        </is>
-      </c>
-      <c r="Q96" t="n">
-        <v>8750000</v>
-      </c>
-      <c r="S96" t="n">
-        <v>17500000</v>
-      </c>
-      <c r="AH96" t="n">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="97">
-      <c r="A97" t="n">
-        <v>96</v>
-      </c>
-      <c r="B97" t="n">
-        <v>5</v>
-      </c>
-      <c r="E97" t="n">
-        <v>17</v>
-      </c>
-      <c r="O97" t="inlineStr">
-        <is>
-          <t>AUD</t>
-        </is>
-      </c>
-      <c r="Q97" t="n">
-        <v>5000000</v>
-      </c>
-      <c r="S97" t="n">
-        <v>25000000</v>
-      </c>
-      <c r="AH97" t="n">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="98">
-      <c r="A98" t="n">
-        <v>97</v>
-      </c>
-      <c r="B98" t="n">
-        <v>6</v>
-      </c>
-      <c r="E98" t="n">
-        <v>18</v>
-      </c>
-      <c r="L98" t="inlineStr">
-        <is>
-          <t>Financial Institutions;Commercial Crime;Professional Indemnity / Errors and Omissions;Commercial Directors and Officers;Medical Malpractice;Transactional Liability</t>
-        </is>
-      </c>
-      <c r="O98" t="inlineStr">
-        <is>
-          <t>GBP</t>
-        </is>
-      </c>
-      <c r="Q98" t="n">
-        <v>3000000</v>
-      </c>
-      <c r="S98" t="n">
-        <v>1000000</v>
-      </c>
-      <c r="AH98" t="n">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="99">
-      <c r="A99" t="n">
-        <v>98</v>
-      </c>
-      <c r="B99" t="n">
-        <v>6</v>
-      </c>
-      <c r="E99" t="n">
-        <v>18</v>
-      </c>
-      <c r="L99" t="inlineStr">
-        <is>
-          <t>Financial Institutions;Commercial Crime;Professional Indemnity / Errors and Omissions;Commercial Directors and Officers;Medical Malpractice;Transactional Liability</t>
-        </is>
-      </c>
-      <c r="O99" t="inlineStr">
-        <is>
-          <t>USD</t>
-        </is>
-      </c>
-      <c r="Q99" t="n">
-        <v>4500000</v>
-      </c>
-      <c r="S99" t="n">
-        <v>1500000</v>
-      </c>
-      <c r="AH99" t="n">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="100">
-      <c r="A100" t="n">
-        <v>99</v>
-      </c>
-      <c r="B100" t="n">
-        <v>6</v>
-      </c>
-      <c r="E100" t="n">
-        <v>18</v>
-      </c>
-      <c r="L100" t="inlineStr">
-        <is>
-          <t>Financial Institutions;Commercial Crime;Professional Indemnity / Errors and Omissions;Commercial Directors and Officers;Medical Malpractice;Transactional Liability</t>
-        </is>
-      </c>
-      <c r="O100" t="inlineStr">
-        <is>
-          <t>EUR</t>
-        </is>
-      </c>
-      <c r="Q100" t="n">
-        <v>4500000</v>
-      </c>
-      <c r="S100" t="n">
-        <v>1500000</v>
-      </c>
-      <c r="AH100" t="n">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="101">
-      <c r="A101" t="n">
-        <v>100</v>
-      </c>
-      <c r="B101" t="n">
-        <v>6</v>
-      </c>
-      <c r="E101" t="n">
-        <v>18</v>
-      </c>
-      <c r="L101" t="inlineStr">
-        <is>
-          <t>Financial Institutions;Commercial Crime;Professional Indemnity / Errors and Omissions;Commercial Directors and Officers;Medical Malpractice;Transactional Liability</t>
-        </is>
-      </c>
-      <c r="O101" t="inlineStr">
-        <is>
-          <t>CAD</t>
-        </is>
-      </c>
-      <c r="Q101" t="n">
-        <v>5250000</v>
-      </c>
-      <c r="S101" t="n">
-        <v>1750000</v>
-      </c>
-      <c r="AH101" t="n">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="102">
-      <c r="A102" t="n">
-        <v>101</v>
-      </c>
-      <c r="B102" t="n">
-        <v>6</v>
-      </c>
-      <c r="E102" t="n">
-        <v>18</v>
-      </c>
-      <c r="L102" t="inlineStr">
-        <is>
-          <t>Financial Institutions;Commercial Crime;Professional Indemnity / Errors and Omissions;Commercial Directors and Officers;Medical Malpractice;Transactional Liability</t>
-        </is>
-      </c>
-      <c r="O102" t="inlineStr">
-        <is>
-          <t>AUD</t>
-        </is>
-      </c>
-      <c r="Q102" t="n">
-        <v>8000000</v>
-      </c>
-      <c r="S102" t="n">
-        <v>2000000</v>
-      </c>
-      <c r="AH102" t="n">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="103">
-      <c r="A103" t="n">
-        <v>102</v>
-      </c>
-      <c r="B103" t="n">
-        <v>6</v>
-      </c>
-      <c r="E103" t="n">
-        <v>18</v>
-      </c>
-      <c r="L103" t="inlineStr">
-        <is>
-          <t>Employers' Liability;General Liability</t>
-        </is>
-      </c>
-      <c r="O103" t="inlineStr">
-        <is>
-          <t>GBP</t>
-        </is>
-      </c>
-      <c r="Q103" t="n">
-        <v>2500000</v>
-      </c>
-      <c r="S103" t="n">
-        <v>1500000</v>
-      </c>
-      <c r="AH103" t="n">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="104">
-      <c r="A104" t="n">
-        <v>103</v>
-      </c>
-      <c r="B104" t="n">
-        <v>6</v>
-      </c>
-      <c r="E104" t="n">
-        <v>18</v>
-      </c>
-      <c r="L104" t="inlineStr">
-        <is>
-          <t>Employers' Liability;General Liability</t>
-        </is>
-      </c>
-      <c r="O104" t="inlineStr">
-        <is>
-          <t>USD</t>
-        </is>
-      </c>
-      <c r="Q104" t="n">
-        <v>3750000</v>
-      </c>
-      <c r="S104" t="n">
-        <v>2250000</v>
-      </c>
-      <c r="AH104" t="n">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="105">
-      <c r="A105" t="n">
-        <v>104</v>
-      </c>
-      <c r="B105" t="n">
-        <v>6</v>
-      </c>
-      <c r="E105" t="n">
-        <v>18</v>
-      </c>
-      <c r="L105" t="inlineStr">
-        <is>
-          <t>Employers' Liability;General Liability</t>
-        </is>
-      </c>
-      <c r="O105" t="inlineStr">
-        <is>
-          <t>EUR</t>
-        </is>
-      </c>
-      <c r="Q105" t="n">
-        <v>3750000</v>
-      </c>
-      <c r="S105" t="n">
-        <v>2250000</v>
-      </c>
-      <c r="AH105" t="n">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="106">
-      <c r="A106" t="n">
-        <v>105</v>
-      </c>
-      <c r="B106" t="n">
-        <v>6</v>
-      </c>
-      <c r="E106" t="n">
-        <v>18</v>
-      </c>
-      <c r="L106" t="inlineStr">
-        <is>
-          <t>Employers' Liability;General Liability</t>
-        </is>
-      </c>
-      <c r="O106" t="inlineStr">
-        <is>
-          <t>CAD</t>
-        </is>
-      </c>
-      <c r="Q106" t="n">
-        <v>4375000</v>
-      </c>
-      <c r="S106" t="n">
-        <v>2625000</v>
-      </c>
-      <c r="AH106" t="n">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="107">
-      <c r="A107" t="n">
-        <v>106</v>
-      </c>
-      <c r="B107" t="n">
-        <v>6</v>
-      </c>
-      <c r="E107" t="n">
-        <v>18</v>
-      </c>
-      <c r="L107" t="inlineStr">
-        <is>
-          <t>Employers' Liability;General Liability</t>
-        </is>
-      </c>
-      <c r="O107" t="inlineStr">
-        <is>
-          <t>AUD</t>
-        </is>
-      </c>
-      <c r="Q107" t="n">
-        <v>7000000</v>
-      </c>
-      <c r="S107" t="n">
-        <v>3000000</v>
-      </c>
-      <c r="AH107" t="n">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="108">
-      <c r="A108" t="n">
-        <v>107</v>
-      </c>
-      <c r="B108" t="n">
-        <v>6</v>
-      </c>
-      <c r="E108" t="n">
-        <v>19</v>
-      </c>
-      <c r="O108" t="inlineStr">
-        <is>
-          <t>GBP</t>
-        </is>
-      </c>
-      <c r="Q108" t="n">
-        <v>6000000</v>
-      </c>
-      <c r="S108" t="n">
-        <v>4000000</v>
-      </c>
-      <c r="AH108" t="n">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="109">
-      <c r="A109" t="n">
-        <v>108</v>
-      </c>
-      <c r="B109" t="n">
-        <v>6</v>
-      </c>
-      <c r="E109" t="n">
-        <v>19</v>
-      </c>
-      <c r="O109" t="inlineStr">
-        <is>
-          <t>USD</t>
-        </is>
-      </c>
-      <c r="Q109" t="n">
-        <v>9000000</v>
-      </c>
-      <c r="S109" t="n">
-        <v>6000000</v>
-      </c>
-      <c r="AH109" t="n">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="110">
-      <c r="A110" t="n">
-        <v>109</v>
-      </c>
-      <c r="B110" t="n">
-        <v>6</v>
-      </c>
-      <c r="E110" t="n">
-        <v>19</v>
-      </c>
-      <c r="O110" t="inlineStr">
-        <is>
-          <t>EUR</t>
-        </is>
-      </c>
-      <c r="Q110" t="n">
-        <v>9000000</v>
-      </c>
-      <c r="S110" t="n">
-        <v>6000000</v>
-      </c>
-      <c r="AH110" t="n">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="111">
-      <c r="A111" t="n">
-        <v>110</v>
-      </c>
-      <c r="B111" t="n">
-        <v>6</v>
-      </c>
-      <c r="E111" t="n">
-        <v>19</v>
-      </c>
-      <c r="O111" t="inlineStr">
-        <is>
-          <t>CAD</t>
-        </is>
-      </c>
-      <c r="Q111" t="n">
-        <v>10500000</v>
-      </c>
-      <c r="S111" t="n">
-        <v>7000000</v>
-      </c>
-      <c r="AH111" t="n">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="112">
-      <c r="A112" t="n">
-        <v>111</v>
-      </c>
-      <c r="B112" t="n">
-        <v>6</v>
-      </c>
-      <c r="E112" t="n">
-        <v>19</v>
-      </c>
-      <c r="O112" t="inlineStr">
-        <is>
-          <t>AUD</t>
-        </is>
-      </c>
-      <c r="Q112" t="n">
-        <v>15000000</v>
-      </c>
-      <c r="S112" t="n">
-        <v>10000000</v>
-      </c>
-      <c r="AH112" t="n">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="113">
-      <c r="A113" t="n">
-        <v>112</v>
-      </c>
-      <c r="B113" t="n">
-        <v>6</v>
-      </c>
-      <c r="E113" t="n">
-        <v>20</v>
-      </c>
-      <c r="O113" t="inlineStr">
-        <is>
-          <t>GBP</t>
-        </is>
-      </c>
-      <c r="Q113" t="n">
-        <v>5000000</v>
-      </c>
-      <c r="S113" t="n">
-        <v>10000000</v>
-      </c>
-      <c r="AH113" t="n">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="114">
-      <c r="A114" t="n">
-        <v>113</v>
-      </c>
-      <c r="B114" t="n">
-        <v>6</v>
-      </c>
-      <c r="E114" t="n">
-        <v>20</v>
-      </c>
-      <c r="O114" t="inlineStr">
-        <is>
-          <t>USD</t>
-        </is>
-      </c>
-      <c r="Q114" t="n">
-        <v>10000000</v>
-      </c>
-      <c r="S114" t="n">
-        <v>15000000</v>
-      </c>
-      <c r="AH114" t="n">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="115">
-      <c r="A115" t="n">
-        <v>114</v>
-      </c>
-      <c r="B115" t="n">
-        <v>6</v>
-      </c>
-      <c r="E115" t="n">
-        <v>20</v>
-      </c>
-      <c r="O115" t="inlineStr">
-        <is>
-          <t>EUR</t>
-        </is>
-      </c>
-      <c r="Q115" t="n">
-        <v>10000000</v>
-      </c>
-      <c r="S115" t="n">
-        <v>15000000</v>
-      </c>
-      <c r="AH115" t="n">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="116">
-      <c r="A116" t="n">
-        <v>115</v>
-      </c>
-      <c r="B116" t="n">
-        <v>6</v>
-      </c>
-      <c r="E116" t="n">
-        <v>20</v>
-      </c>
-      <c r="O116" t="inlineStr">
-        <is>
-          <t>CAD</t>
-        </is>
-      </c>
-      <c r="Q116" t="n">
-        <v>8750000</v>
-      </c>
-      <c r="S116" t="n">
-        <v>17500000</v>
-      </c>
-      <c r="AH116" t="n">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="117">
-      <c r="A117" t="n">
-        <v>116</v>
-      </c>
-      <c r="B117" t="n">
-        <v>6</v>
-      </c>
-      <c r="E117" t="n">
-        <v>20</v>
-      </c>
-      <c r="O117" t="inlineStr">
-        <is>
-          <t>AUD</t>
-        </is>
-      </c>
-      <c r="Q117" t="n">
-        <v>5000000</v>
-      </c>
-      <c r="S117" t="n">
-        <v>25000000</v>
-      </c>
-      <c r="AH117" t="n">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="118">
-      <c r="A118" t="n">
-        <v>117</v>
-      </c>
-      <c r="B118" t="n">
-        <v>7</v>
-      </c>
-      <c r="E118" t="n">
-        <v>21</v>
-      </c>
-      <c r="W118" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="AH118" t="n">
         <v>1</v>
       </c>
     </row>
